--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 30/DAX30_efficient_portfolios_and_returns_with_prediction_annual.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 30/DAX30_efficient_portfolios_and_returns_with_prediction_annual.xlsx
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.2554052172269962</v>
+        <v>0.2225740415103482</v>
       </c>
       <c r="F2" t="n">
-        <v>0.007105814673972512</v>
+        <v>0.04211428586183639</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09008484223770846</v>
+        <v>0.07812631280688864</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002642502057470902</v>
+        <v>0.001387453637646905</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01726010753729655</v>
+        <v>0.002048095479631443</v>
       </c>
       <c r="J2" t="n">
-        <v>0.07823564366467893</v>
+        <v>0.03775589789545469</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06274894643889208</v>
+        <v>0.07554670530756537</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004745499160328022</v>
+        <v>0.004255508768081201</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0395152455193746</v>
+        <v>0.09335425962229567</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01845171263756188</v>
+        <v>0.04369879313409124</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0001109553494047505</v>
+        <v>0.0245448121663068</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01184931161563519</v>
+        <v>0.0987945114472263</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.08357362677259707</v>
+        <v>0.01090403795687174</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001325921456317277</v>
+        <v>0.05457859757743165</v>
       </c>
       <c r="S2" t="n">
-        <v>0.08118956383097234</v>
+        <v>0.01886657795049884</v>
       </c>
       <c r="T2" t="n">
-        <v>0.08170338752511247</v>
+        <v>0.0626527400533106</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00306013732991208</v>
+        <v>0.0155009955682705</v>
       </c>
       <c r="V2" t="n">
-        <v>0.06901928470561768</v>
+        <v>0.09683482622805316</v>
       </c>
       <c r="W2" t="n">
-        <v>0.05802800619755898</v>
+        <v>0.02445417305423311</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01002468853424201</v>
+        <v>0.003901319128209861</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.06587150453076206</v>
+        <v>0.008660784266264683</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.08416733252820396</v>
+        <v>0.006774372023734444</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.101272712673586</v>
+        <v>0.08586227501880363</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.02801325302279423</v>
+        <v>0.1093826650472932</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.06813726882612756</v>
+        <v>0.08390303802875526</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.976291178160748</v>
+        <v>2.826374364495644</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09063562948565045</v>
+        <v>0.1164161828590138</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07033096486794799</v>
+        <v>0.03228606299853651</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08380027857649673</v>
+        <v>0.1196684165766784</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0003033884310757972</v>
+        <v>0.0001201952527170178</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02919143082092446</v>
+        <v>0.01705222922432653</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0372359848420547</v>
+        <v>0.0008897013580057968</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09319500395325905</v>
+        <v>0.1005175708654381</v>
       </c>
       <c r="M3" t="n">
-        <v>0.006535528939384597</v>
+        <v>0.02370652356999661</v>
       </c>
       <c r="N3" t="n">
-        <v>0.08105446836463595</v>
+        <v>0.0233866446255425</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0239820543367051</v>
+        <v>0.07846314096425627</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0100024022430124</v>
+        <v>0.017803073774824</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.06075119764486442</v>
+        <v>0.02635128470826099</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0355812537381462</v>
+        <v>0.08329073990862418</v>
       </c>
       <c r="S3" t="n">
-        <v>0.08116481678529443</v>
+        <v>0.01689399417363388</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01369486605517981</v>
+        <v>0.04630564539747214</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03014481122100779</v>
+        <v>0.06846873504558761</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0202378353876463</v>
+        <v>0.06748570105751213</v>
       </c>
       <c r="W3" t="n">
-        <v>0.02612456737255725</v>
+        <v>0.01901336365302211</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0167131097718682</v>
+        <v>0.0138581751299392</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0921361293803553</v>
+        <v>0.0606758544842104</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.06640042449412133</v>
+        <v>0.007728481388585716</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.02492630785469533</v>
+        <v>0.05133567230417112</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.00585754543311656</v>
+        <v>0.008282610679645027</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.111512350620542</v>
+        <v>0.1299686832758773</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1495336894422424</v>
+        <v>0.1481933220191133</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04872031567698602</v>
+        <v>0.05002850807233519</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04881163156423905</v>
+        <v>0.01848401134281829</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04658194250161834</v>
+        <v>0.03409873991417128</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04040637680342157</v>
+        <v>0.01571112327590136</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02538303724599574</v>
+        <v>0.02894103431085739</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001746581344895399</v>
+        <v>0.06763596496298233</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06200549576668877</v>
+        <v>0.05217235319886858</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03659783552420744</v>
+        <v>0.07414039077557261</v>
       </c>
       <c r="N4" t="n">
-        <v>0.06350531318321762</v>
+        <v>0.04578830393953547</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06391264357250005</v>
+        <v>0.09224557490334877</v>
       </c>
       <c r="P4" t="n">
-        <v>0.008466071619379924</v>
+        <v>0.001643581122264209</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.004251284360166084</v>
+        <v>0.0006587543460040691</v>
       </c>
       <c r="R4" t="n">
-        <v>0.06244601558594734</v>
+        <v>0.06562233979884195</v>
       </c>
       <c r="S4" t="n">
-        <v>0.07837379542641047</v>
+        <v>0.07445148019356335</v>
       </c>
       <c r="T4" t="n">
-        <v>0.05034899571941199</v>
+        <v>0.01191241625568132</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03467145537728687</v>
+        <v>0.05240191064952476</v>
       </c>
       <c r="V4" t="n">
-        <v>0.04334278979299098</v>
+        <v>0.08850675816088618</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02817994468684206</v>
+        <v>0.002702081690937483</v>
       </c>
       <c r="X4" t="n">
-        <v>0.09394263546650639</v>
+        <v>0.04571936138504131</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0002301120707611332</v>
+        <v>0.002824533648041828</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0705391862954225</v>
+        <v>0.09092704589445112</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.06434710657051949</v>
+        <v>0.07137208881189808</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.02318943384458478</v>
+        <v>0.01201164334647318</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.6602912118340949</v>
+        <v>-0.763411951047763</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.8724190304776842</v>
+        <v>0.8362896484393023</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02438538621828416</v>
+        <v>0.002615052697540692</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003189555344891863</v>
+        <v>0.00823578913755414</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07059393742505651</v>
+        <v>0.02838347012446998</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03518206280949817</v>
+        <v>0.04980363960302506</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06411453151418321</v>
+        <v>0.07777852337208019</v>
       </c>
       <c r="K5" t="n">
-        <v>0.045565560475779</v>
+        <v>0.03707415431144609</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1076045663870244</v>
+        <v>0.05923459001475107</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02074098372740773</v>
+        <v>0.04117244379100362</v>
       </c>
       <c r="N5" t="n">
-        <v>0.002794607239515914</v>
+        <v>0.02428226967927984</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09135894784328807</v>
+        <v>0.1003476594676843</v>
       </c>
       <c r="P5" t="n">
-        <v>0.03222054329257098</v>
+        <v>0.05266257971977263</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1093370074829534</v>
+        <v>0.1051556670329962</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01839225585198151</v>
+        <v>0.02910397184808529</v>
       </c>
       <c r="S5" t="n">
-        <v>0.08242768019022549</v>
+        <v>0.06790570263144162</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0110697192518987</v>
+        <v>0.005285086574268746</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04834395662869696</v>
+        <v>0.07244861894839573</v>
       </c>
       <c r="V5" t="n">
-        <v>0.02429787581987467</v>
+        <v>0.03861689330005361</v>
       </c>
       <c r="W5" t="n">
-        <v>0.00645938884648368</v>
+        <v>0.0160135544407873</v>
       </c>
       <c r="X5" t="n">
-        <v>0.04797609272526231</v>
+        <v>0.04247524821594395</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.002113196228252025</v>
+        <v>0.001902891266353632</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.01587969336666344</v>
+        <v>0.06283054728695978</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0974894033731719</v>
+        <v>0.04476626266072957</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0384630479570358</v>
+        <v>0.03190538387537704</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.6626588416241714</v>
+        <v>-0.6487145077394124</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.3031053965277621</v>
+        <v>0.3075283224706325</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06050458993152766</v>
+        <v>0.08637528180725089</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04280540205004982</v>
+        <v>0.02555139803785099</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04402828599291278</v>
+        <v>0.07839976384242064</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08871000277886654</v>
+        <v>0.04943473292405638</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08090348289045744</v>
+        <v>0.08933436640841634</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003188060508035552</v>
+        <v>0.01798608472349553</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002001712645179048</v>
+        <v>0.007228685559013305</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02357581493323381</v>
+        <v>0.01088738626150234</v>
       </c>
       <c r="N6" t="n">
-        <v>0.002172514072372592</v>
+        <v>0.01763163148018641</v>
       </c>
       <c r="O6" t="n">
-        <v>0.007373664557454037</v>
+        <v>0.04312206506933329</v>
       </c>
       <c r="P6" t="n">
-        <v>0.07341367231440762</v>
+        <v>0.08567900296631352</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.002747292812910253</v>
+        <v>0.0182349672261259</v>
       </c>
       <c r="R6" t="n">
-        <v>0.07067783234905949</v>
+        <v>0.01834503581514881</v>
       </c>
       <c r="S6" t="n">
-        <v>0.001475689097408151</v>
+        <v>0.01962570570126118</v>
       </c>
       <c r="T6" t="n">
-        <v>0.05779240524115847</v>
+        <v>0.06395711216356095</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03885305151700729</v>
+        <v>0.03357981305340516</v>
       </c>
       <c r="V6" t="n">
-        <v>0.06581466551478973</v>
+        <v>0.02609399134760051</v>
       </c>
       <c r="W6" t="n">
-        <v>0.04659157553082539</v>
+        <v>0.08322022948749645</v>
       </c>
       <c r="X6" t="n">
-        <v>0.02793029601746795</v>
+        <v>0.07231483326327942</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.08860542677662317</v>
+        <v>0.05634310079594007</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.09066942845161625</v>
+        <v>0.08255987538229081</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.006375496458954208</v>
+        <v>0.01241366194909393</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.07378963755768279</v>
+        <v>0.001681274734957262</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.2996250477928588</v>
+        <v>0.2327571647385957</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.4401128255510342</v>
+        <v>0.4254330502633752</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02429697706495482</v>
+        <v>0.06496362850954897</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02333947137252148</v>
+        <v>0.01246628721194875</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002140206265850729</v>
+        <v>0.02205726977133597</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04014369319350828</v>
+        <v>0.1172791571785645</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01663995627037336</v>
+        <v>0.003430197115815663</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02941040467819063</v>
+        <v>0.06737065970743737</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08820058290648949</v>
+        <v>0.07218136706700964</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02602395385230262</v>
+        <v>0.005407607499891699</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01156196982859987</v>
+        <v>0.03031109582322987</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02245935836448565</v>
+        <v>0.0107037129594896</v>
       </c>
       <c r="P7" t="n">
-        <v>0.07786369531776026</v>
+        <v>0.06744496291430362</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.002050977283436966</v>
+        <v>0.07898398389825639</v>
       </c>
       <c r="R7" t="n">
-        <v>0.04140872456860398</v>
+        <v>0.01072739776941184</v>
       </c>
       <c r="S7" t="n">
-        <v>0.05332641995296278</v>
+        <v>0.01946038555436214</v>
       </c>
       <c r="T7" t="n">
-        <v>0.01873151927329497</v>
+        <v>0.05167678642484053</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09986624356859362</v>
+        <v>0.0007327585149105472</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1400729860889749</v>
+        <v>0.1197115170215126</v>
       </c>
       <c r="W7" t="n">
-        <v>0.03899949242428694</v>
+        <v>0.07198461654043169</v>
       </c>
       <c r="X7" t="n">
-        <v>0.07242663560275038</v>
+        <v>0.1190261352117755</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02674858378237537</v>
+        <v>0.00522281818056235</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.04278642611121017</v>
+        <v>0.02710658228713569</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.03316107128926469</v>
+        <v>0.01261293040701836</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.06834065093920794</v>
+        <v>0.009138142431206695</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3811037224091537</v>
+        <v>0.3233338588108007</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2755399280502664</v>
+        <v>0.2728209168865608</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01301756689375391</v>
+        <v>0.009458264140879503</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08803707409926084</v>
+        <v>0.05848464627695107</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03490749675638358</v>
+        <v>0.02990731180967447</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1044603932326535</v>
+        <v>0.09518112034451005</v>
       </c>
       <c r="J8" t="n">
-        <v>0.001511827201560577</v>
+        <v>0.004771442499784807</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01647278834822898</v>
+        <v>0.09057243847899882</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01658585292955334</v>
+        <v>0.003638083850745127</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01710270627445439</v>
+        <v>0.003163930563162538</v>
       </c>
       <c r="N8" t="n">
-        <v>0.006342440279185688</v>
+        <v>0.0248606560278981</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003503634211907639</v>
+        <v>0.01223954178092104</v>
       </c>
       <c r="P8" t="n">
-        <v>0.08326539022622932</v>
+        <v>0.05428390087496571</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03227746426820093</v>
+        <v>0.05368143148697278</v>
       </c>
       <c r="R8" t="n">
-        <v>0.09529007427483532</v>
+        <v>0.07853014618825004</v>
       </c>
       <c r="S8" t="n">
-        <v>0.04198088823737164</v>
+        <v>0.08183884028313973</v>
       </c>
       <c r="T8" t="n">
-        <v>0.08943249349302586</v>
+        <v>0.02766531584922978</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03654549290045787</v>
+        <v>0.004806491689099828</v>
       </c>
       <c r="V8" t="n">
-        <v>0.005918678692548198</v>
+        <v>0.01886130091938281</v>
       </c>
       <c r="W8" t="n">
-        <v>0.05688201619237659</v>
+        <v>0.05364865510612329</v>
       </c>
       <c r="X8" t="n">
-        <v>0.09623641245666649</v>
+        <v>0.02220960172722713</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0009086070533560455</v>
+        <v>0.05162108606399005</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.06431567051460063</v>
+        <v>0.08513113416379417</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0001958294367077461</v>
+        <v>0.05378825303785745</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.09480920202668081</v>
+        <v>0.0816564068364416</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.109966109206437</v>
+        <v>0.1438878313958999</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.5157052237932576</v>
+        <v>0.4632279857538751</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04745962883006695</v>
+        <v>0.02815667923347025</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04493699301774499</v>
+        <v>0.04253461674762565</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07144446609664486</v>
+        <v>0.08808121038281867</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03518050661664119</v>
+        <v>0.09231412209091913</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1016533642414065</v>
+        <v>0.09439693054375532</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05205891564665932</v>
+        <v>0.01603949950264781</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06517408927191852</v>
+        <v>0.02717637242992037</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01407208408369325</v>
+        <v>0.005627142166266971</v>
       </c>
       <c r="N9" t="n">
-        <v>0.09161664136084376</v>
+        <v>0.06952078835909885</v>
       </c>
       <c r="O9" t="n">
-        <v>0.003356946248087262</v>
+        <v>0.009899827155353626</v>
       </c>
       <c r="P9" t="n">
-        <v>0.07145929963885896</v>
+        <v>0.04551402843533509</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02445747451394592</v>
+        <v>0.02899241418730645</v>
       </c>
       <c r="R9" t="n">
-        <v>0.04944259743291839</v>
+        <v>0.04570575948930309</v>
       </c>
       <c r="S9" t="n">
-        <v>8.676017268227991e-05</v>
+        <v>0.03374560605282299</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01614194244150138</v>
+        <v>0.01683303030237887</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04604308389041838</v>
+        <v>0.03063796167366375</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1199687790730186</v>
+        <v>0.07224411149602296</v>
       </c>
       <c r="W9" t="n">
-        <v>0.009557269175459062</v>
+        <v>0.03402516103995092</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01877914818801917</v>
+        <v>0.007385223157385336</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.02595483445094918</v>
+        <v>0.04392322494660551</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.03428702817885908</v>
+        <v>0.07256103786343215</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.02060386208752914</v>
+        <v>0.0404707770722563</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.03626428534213393</v>
+        <v>0.05421447567165968</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.2137188880950734</v>
+        <v>0.1833736205203756</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.3462995459638409</v>
+        <v>0.2971163186097524</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04168797141977288</v>
+        <v>0.07127865686757386</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01406261728509524</v>
+        <v>0.05566710687872944</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06407378861110508</v>
+        <v>0.03555421739243657</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01086875188845891</v>
+        <v>0.01189779377941186</v>
       </c>
       <c r="J10" t="n">
-        <v>0.00019796326304157</v>
+        <v>0.009050196126083017</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01639407683628536</v>
+        <v>0.005178012554149486</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005205428680267952</v>
+        <v>0.01641736866165458</v>
       </c>
       <c r="M10" t="n">
-        <v>0.09347878496742082</v>
+        <v>0.03476323972211407</v>
       </c>
       <c r="N10" t="n">
-        <v>0.003698563491272938</v>
+        <v>0.09676956417513143</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04856901005138269</v>
+        <v>0.04648764556563009</v>
       </c>
       <c r="P10" t="n">
-        <v>0.04486101379100162</v>
+        <v>0.007794437509947207</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.04760855104890802</v>
+        <v>0.05953893543417251</v>
       </c>
       <c r="R10" t="n">
-        <v>0.04416069542995198</v>
+        <v>0.06911278493385069</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02694970474519515</v>
+        <v>0.06873715965339104</v>
       </c>
       <c r="T10" t="n">
-        <v>0.04461224150353851</v>
+        <v>0.06184514915789619</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05809134199820196</v>
+        <v>0.03285309944381513</v>
       </c>
       <c r="V10" t="n">
-        <v>0.02471763425710427</v>
+        <v>0.002798297700588548</v>
       </c>
       <c r="W10" t="n">
-        <v>0.08302126982826713</v>
+        <v>0.04335248741948849</v>
       </c>
       <c r="X10" t="n">
-        <v>0.08780578271122082</v>
+        <v>0.07754436298614081</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.07849471802917582</v>
+        <v>0.08698783432439457</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.07577397696296104</v>
+        <v>0.03668630197875891</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.07349498754978394</v>
+        <v>0.06588583688751729</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.01217112565058639</v>
+        <v>0.003799510847124367</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.1292188069314049</v>
+        <v>-0.1561912374687073</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7030669576069275</v>
+        <v>0.7726019833442939</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03126338616732014</v>
+        <v>0.002869415046127375</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0009256255594891902</v>
+        <v>0.06296552851064545</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1103444256412983</v>
+        <v>0.07652095469101425</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01042288055088312</v>
+        <v>0.0164500735780329</v>
       </c>
       <c r="J11" t="n">
-        <v>0.003842647408045484</v>
+        <v>0.01058505724093371</v>
       </c>
       <c r="K11" t="n">
-        <v>0.08553118379906087</v>
+        <v>0.09607264516918679</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06236982606028703</v>
+        <v>0.0314312616976436</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04415361939441349</v>
+        <v>0.009901860597970262</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01142538783554453</v>
+        <v>0.065810738752134</v>
       </c>
       <c r="O11" t="n">
-        <v>0.00913027687576394</v>
+        <v>0.02186092713053496</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01264210365989781</v>
+        <v>0.1007219338508951</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01807493000524118</v>
+        <v>0.06216825334510685</v>
       </c>
       <c r="R11" t="n">
-        <v>0.08108448344482602</v>
+        <v>0.06689484577685507</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1193896351537155</v>
+        <v>0.09086610857865444</v>
       </c>
       <c r="T11" t="n">
-        <v>0.06138285420220452</v>
+        <v>0.01759789869773482</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05778566836527172</v>
+        <v>0.04424049795878341</v>
       </c>
       <c r="V11" t="n">
-        <v>0.001264447938885973</v>
+        <v>0.03711251421073474</v>
       </c>
       <c r="W11" t="n">
-        <v>0.02389709293095213</v>
+        <v>0.005875080264445292</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01243578158733562</v>
+        <v>0.07940292222389012</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.07443532312652798</v>
+        <v>0.01758008961799294</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.07127367992924398</v>
+        <v>0.06296123153773224</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.08899641091482292</v>
+        <v>0.005791594774783913</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.007928329448968523</v>
+        <v>0.01431856674816764</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.1314450210599625</v>
+        <v>-0.125363707273024</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1873560728376772</v>
+        <v>0.1898441587523168</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0120088853182846</v>
+        <v>0.03652415226290085</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01834481247465201</v>
+        <v>0.001891687435430763</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0291647114664914</v>
+        <v>0.03233725398954861</v>
       </c>
       <c r="I12" t="n">
-        <v>0.07247182725288324</v>
+        <v>0.09157450481796793</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001655212616480656</v>
+        <v>0.05922431862685055</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02139906449496764</v>
+        <v>0.07387353587328897</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01909151529000958</v>
+        <v>0.002347849783910633</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0805870526293774</v>
+        <v>0.05878662253432118</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01421544796038474</v>
+        <v>0.01042517327520115</v>
       </c>
       <c r="O12" t="n">
-        <v>0.05387879242081591</v>
+        <v>0.04648500502596618</v>
       </c>
       <c r="P12" t="n">
-        <v>0.07790609805554614</v>
+        <v>0.08409422857262157</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.05323094604228129</v>
+        <v>0.02263014912272299</v>
       </c>
       <c r="R12" t="n">
-        <v>0.08966585692566195</v>
+        <v>0.08305330103077944</v>
       </c>
       <c r="S12" t="n">
-        <v>0.005906497912319634</v>
+        <v>0.002119293124547561</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01963259736210255</v>
+        <v>0.05082335757401318</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08675280986321161</v>
+        <v>0.09274246221891955</v>
       </c>
       <c r="V12" t="n">
-        <v>0.02787769623461657</v>
+        <v>0.02602262122424586</v>
       </c>
       <c r="W12" t="n">
-        <v>0.08686514706390253</v>
+        <v>0.02653464955679945</v>
       </c>
       <c r="X12" t="n">
-        <v>0.06685173693580332</v>
+        <v>0.05767465597656893</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.009449894548442962</v>
+        <v>0.01189381126291311</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.08286277521164957</v>
+        <v>0.05136125438305954</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.0147744946120933</v>
+        <v>0.06648778028216552</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.05540612730802133</v>
+        <v>0.01109233204525665</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.1922264581501866</v>
+        <v>0.2174705154782628</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.8866371063453385</v>
+        <v>0.7417000053225681</v>
       </c>
       <c r="F13" t="n">
-        <v>0.008751232614981123</v>
+        <v>0.01075526295988023</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01955303905344181</v>
+        <v>0.006217593497427851</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02379868918687433</v>
+        <v>0.09801357550295903</v>
       </c>
       <c r="I13" t="n">
-        <v>0.06874145214053209</v>
+        <v>0.009937348249909002</v>
       </c>
       <c r="J13" t="n">
-        <v>0.04361077568309321</v>
+        <v>0.05157596905828253</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02962665645003586</v>
+        <v>0.01192350256378309</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02808626972118985</v>
+        <v>0.005197481881774726</v>
       </c>
       <c r="M13" t="n">
-        <v>0.05768960575804459</v>
+        <v>0.1033877789001149</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01142381718406242</v>
+        <v>0.006086900393884072</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04723696704888485</v>
+        <v>0.07812383611304456</v>
       </c>
       <c r="P13" t="n">
-        <v>0.04734040195104704</v>
+        <v>0.02491063291296281</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0330214823079949</v>
+        <v>0.02487776496822706</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1186248345631676</v>
+        <v>0.08008956366899499</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1236449686944383</v>
+        <v>0.102693397483299</v>
       </c>
       <c r="T13" t="n">
-        <v>0.004718477121297139</v>
+        <v>0.05520040289178191</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003602335238832406</v>
+        <v>0.01503535136137754</v>
       </c>
       <c r="V13" t="n">
-        <v>0.04740648717607662</v>
+        <v>0.08144741549482293</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1186110037115467</v>
+        <v>0.07214555576538928</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0717578642620723</v>
+        <v>0.03468386529831496</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.06806059409169103</v>
+        <v>0.005448704588759671</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.001750500286865506</v>
+        <v>0.03765203265574547</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0008295904645981919</v>
+        <v>0.05366973903238563</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.02211295528923213</v>
+        <v>0.03092632475687901</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.1717779355403103</v>
+        <v>0.1798461969837346</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2185732211164192</v>
+        <v>0.2254192387557821</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05968859655700329</v>
+        <v>0.08125625046576392</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04547728860422409</v>
+        <v>0.1015097800574602</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05587284547109246</v>
+        <v>0.01736719765176287</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07487591673208528</v>
+        <v>0.003108619261864869</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05373505328135084</v>
+        <v>0.02593131527579443</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01018805654825169</v>
+        <v>0.03499117536778749</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01629740147951037</v>
+        <v>0.02643844782054362</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01070867507473489</v>
+        <v>0.03067462038905436</v>
       </c>
       <c r="N14" t="n">
-        <v>0.08426281244037116</v>
+        <v>0.051970453360924</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02360581100024327</v>
+        <v>0.05433606333213856</v>
       </c>
       <c r="P14" t="n">
-        <v>0.09779683218931205</v>
+        <v>0.04371818891657137</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01066506293857881</v>
+        <v>0.08459259438697801</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1001922082900053</v>
+        <v>0.02931062511918767</v>
       </c>
       <c r="S14" t="n">
-        <v>0.06292789936759195</v>
+        <v>0.05484686728215611</v>
       </c>
       <c r="T14" t="n">
-        <v>0.07341562545181744</v>
+        <v>0.07065874138148835</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05839166167325074</v>
+        <v>0.06642119391420653</v>
       </c>
       <c r="V14" t="n">
-        <v>0.02851552854388758</v>
+        <v>0.09450681407783729</v>
       </c>
       <c r="W14" t="n">
-        <v>0.004874804682057465</v>
+        <v>0.006004056259051919</v>
       </c>
       <c r="X14" t="n">
-        <v>0.004241518507079517</v>
+        <v>0.00133939648738853</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.02400361942037905</v>
+        <v>0.02142028255319732</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.03015606635981716</v>
+        <v>0.05927439928259452</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.06990281731080086</v>
+        <v>0.03733571454981227</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0002038980765546036</v>
+        <v>0.002987202806435775</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.1831127346869761</v>
+        <v>0.190004964532156</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.8260663594156378</v>
+        <v>1.00680726769137</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03477686623334322</v>
+        <v>0.06457446899975261</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1105448732820757</v>
+        <v>0.007465514054188807</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04554925582238128</v>
+        <v>0.04273662964828896</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01379813602312973</v>
+        <v>0.100237324919956</v>
       </c>
       <c r="J15" t="n">
-        <v>0.06736690667237542</v>
+        <v>4.54326581561564e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.09161141301903286</v>
+        <v>0.1106424903918298</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001334385758080601</v>
+        <v>0.01969109592581387</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01411902698186361</v>
+        <v>0.004847984261274398</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0560410107965385</v>
+        <v>0.03649383620938767</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0949380706574897</v>
+        <v>0.04436023309459372</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0100631875984689</v>
+        <v>0.07853562022973341</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.005633180831586676</v>
+        <v>0.05631512902618277</v>
       </c>
       <c r="R15" t="n">
-        <v>0.002033702141855301</v>
+        <v>0.01828696849639204</v>
       </c>
       <c r="S15" t="n">
-        <v>0.08360665201035236</v>
+        <v>0.0892158734791563</v>
       </c>
       <c r="T15" t="n">
-        <v>0.03610249874180802</v>
+        <v>0.00320492523396258</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0063450823834596</v>
+        <v>0.003287165252663917</v>
       </c>
       <c r="V15" t="n">
-        <v>0.0379256989174102</v>
+        <v>0.02274670046776772</v>
       </c>
       <c r="W15" t="n">
-        <v>0.004368521987878522</v>
+        <v>0.0153323826052796</v>
       </c>
       <c r="X15" t="n">
-        <v>0.09513360912868174</v>
+        <v>0.1162065497785745</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.09083895090469232</v>
+        <v>0.05193988152830491</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.04248449016138221</v>
+        <v>0.006041963098466629</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.05330444379602577</v>
+        <v>0.1012575556591326</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.002080036150087913</v>
+        <v>0.006534274981141241</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.1954350462125038</v>
+        <v>0.2367767550015582</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.244814890608176</v>
+        <v>0.2017095033533971</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06719378506189234</v>
+        <v>0.05337561656987175</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06358286356235539</v>
+        <v>0.06095565816123896</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02128089729098746</v>
+        <v>0.03348275347194246</v>
       </c>
       <c r="I16" t="n">
-        <v>5.595812463157697e-05</v>
+        <v>0.0008852908564395803</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0830522917815498</v>
+        <v>0.08641270397210389</v>
       </c>
       <c r="K16" t="n">
-        <v>0.008537716203874827</v>
+        <v>0.01027524561554605</v>
       </c>
       <c r="L16" t="n">
-        <v>0.05425290618078955</v>
+        <v>0.03218533588897649</v>
       </c>
       <c r="M16" t="n">
-        <v>0.05495857841335151</v>
+        <v>0.0004423482562176439</v>
       </c>
       <c r="N16" t="n">
-        <v>0.07732162052092879</v>
+        <v>0.07448392714380235</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0383482937666474</v>
+        <v>0.01033529141342737</v>
       </c>
       <c r="P16" t="n">
-        <v>0.005071228275438461</v>
+        <v>0.006366259129277749</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.04866517105787836</v>
+        <v>0.03604743768512451</v>
       </c>
       <c r="R16" t="n">
-        <v>0.06626851921253482</v>
+        <v>0.0578152024028749</v>
       </c>
       <c r="S16" t="n">
-        <v>0.04592314123383229</v>
+        <v>0.08479328168327663</v>
       </c>
       <c r="T16" t="n">
-        <v>0.03251820667044885</v>
+        <v>0.02623926054294051</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0485281193467824</v>
+        <v>0.04550834306534771</v>
       </c>
       <c r="V16" t="n">
-        <v>0.07224889553019211</v>
+        <v>0.0491810601509677</v>
       </c>
       <c r="W16" t="n">
-        <v>0.009163485212359192</v>
+        <v>0.00129412249742094</v>
       </c>
       <c r="X16" t="n">
-        <v>0.03852216946267609</v>
+        <v>0.08715803588436127</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.05591131757275085</v>
+        <v>0.08405833048574499</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.05717234380228246</v>
+        <v>0.1014908893656007</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.004962751676728457</v>
+        <v>0.04357288896821545</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.04645974003908702</v>
+        <v>0.01364071678928038</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.002953228414776726</v>
+        <v>0.005022356227122955</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.3049153430287523</v>
+        <v>0.4488597029861967</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07539946092885713</v>
+        <v>0.08169534286691774</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01112458123820758</v>
+        <v>0.04832710491911926</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06812152021558721</v>
+        <v>0.00587531792428816</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01020181617226306</v>
+        <v>0.000159097011233461</v>
       </c>
       <c r="J17" t="n">
-        <v>0.05330162721804582</v>
+        <v>0.03072317000689299</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01133138269589051</v>
+        <v>0.004356526367798118</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03817616786021858</v>
+        <v>0.01311644596146257</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01748658194504565</v>
+        <v>0.06237808029170101</v>
       </c>
       <c r="N17" t="n">
-        <v>0.07517918259967701</v>
+        <v>0.01256844909489383</v>
       </c>
       <c r="O17" t="n">
-        <v>0.06154648281850949</v>
+        <v>0.08802119217341102</v>
       </c>
       <c r="P17" t="n">
-        <v>0.02090889656253371</v>
+        <v>0.03614219640405353</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.02124793724710557</v>
+        <v>0.04861646130657951</v>
       </c>
       <c r="R17" t="n">
-        <v>0.01959737017100302</v>
+        <v>0.001310906682109113</v>
       </c>
       <c r="S17" t="n">
-        <v>0.02725729857971709</v>
+        <v>0.03897839676151818</v>
       </c>
       <c r="T17" t="n">
-        <v>0.07716005417970914</v>
+        <v>0.0625740199592003</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05215211793166777</v>
+        <v>0.08962029393176379</v>
       </c>
       <c r="V17" t="n">
-        <v>0.05956348077508671</v>
+        <v>0.04219477683308618</v>
       </c>
       <c r="W17" t="n">
-        <v>0.01266586762770171</v>
+        <v>0.02928159649042236</v>
       </c>
       <c r="X17" t="n">
-        <v>0.09648505127278627</v>
+        <v>0.08535690355069876</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.09622152248290215</v>
+        <v>0.06116753550205414</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.02565608390642071</v>
+        <v>0.04947977667181603</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.04727828215129378</v>
+        <v>0.04342802905596792</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.02193723341977026</v>
+        <v>0.06462838023301219</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.01540424881672103</v>
+        <v>-0.0001728912089638381</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1556766620114139</v>
+        <v>0.141658163031341</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01802053280130748</v>
+        <v>0.01768529145774554</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05129695668957354</v>
+        <v>0.07401414861699991</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01964883525495985</v>
+        <v>0.04124817438773289</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04733360858699644</v>
+        <v>0.03973921641136734</v>
       </c>
       <c r="J18" t="n">
-        <v>0.05866729144298553</v>
+        <v>0.01908362874546974</v>
       </c>
       <c r="K18" t="n">
-        <v>0.07211600987466373</v>
+        <v>0.05872896206422457</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04258983523355248</v>
+        <v>0.05587544198074204</v>
       </c>
       <c r="M18" t="n">
-        <v>0.05501057678963187</v>
+        <v>0.05615097303022581</v>
       </c>
       <c r="N18" t="n">
-        <v>0.06574175284252373</v>
+        <v>0.07237146158330202</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1011161148447666</v>
+        <v>0.07252582658784482</v>
       </c>
       <c r="P18" t="n">
-        <v>0.04917251263681584</v>
+        <v>0.02729887647583068</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01227960116263838</v>
+        <v>0.0387817700086131</v>
       </c>
       <c r="R18" t="n">
-        <v>0.005465448390665388</v>
+        <v>0.002340024265168624</v>
       </c>
       <c r="S18" t="n">
-        <v>0.07790844538242277</v>
+        <v>0.06108709420937438</v>
       </c>
       <c r="T18" t="n">
-        <v>0.09751318542019725</v>
+        <v>0.04104152011603008</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0437368686690806</v>
+        <v>0.05620516644630197</v>
       </c>
       <c r="V18" t="n">
-        <v>0.007389582862489195</v>
+        <v>0.007985525401706429</v>
       </c>
       <c r="W18" t="n">
-        <v>0.0005641213767720402</v>
+        <v>0.0008353152484380786</v>
       </c>
       <c r="X18" t="n">
-        <v>0.04455337407939628</v>
+        <v>0.08413739850462415</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.02343781192273947</v>
+        <v>0.03764577749557175</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.02777767560932092</v>
+        <v>0.07818925559741531</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.06671941265184878</v>
+        <v>0.04419472305142125</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.0119404454746518</v>
+        <v>0.01283442831384933</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.1187892266560882</v>
+        <v>0.08548085485803285</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.8812425294440422</v>
+        <v>1.007460669942907</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04611273431273701</v>
+        <v>0.02817848515935296</v>
       </c>
       <c r="G19" t="n">
-        <v>0.008828638317323272</v>
+        <v>0.03874093799925234</v>
       </c>
       <c r="H19" t="n">
-        <v>0.05241830299563894</v>
+        <v>0.02622377545064895</v>
       </c>
       <c r="I19" t="n">
-        <v>0.07036410085231479</v>
+        <v>0.05615801860558279</v>
       </c>
       <c r="J19" t="n">
-        <v>0.05180764289218666</v>
+        <v>0.01583413358792892</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07463799981357234</v>
+        <v>0.06877260201694785</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01600801048452048</v>
+        <v>0.001398761046540855</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04902484214989753</v>
+        <v>0.03968399112667924</v>
       </c>
       <c r="N19" t="n">
-        <v>0.03775367402741191</v>
+        <v>0.008426752710287698</v>
       </c>
       <c r="O19" t="n">
-        <v>0.05973887738420606</v>
+        <v>0.07195454026967313</v>
       </c>
       <c r="P19" t="n">
-        <v>0.02454792462636808</v>
+        <v>0.003496256157424358</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.005989761477039494</v>
+        <v>0.01522765194695561</v>
       </c>
       <c r="R19" t="n">
-        <v>0.07755373108746411</v>
+        <v>0.08821571218640274</v>
       </c>
       <c r="S19" t="n">
-        <v>0.06818686272502075</v>
+        <v>0.05895132558340439</v>
       </c>
       <c r="T19" t="n">
-        <v>0.0554845972338819</v>
+        <v>0.09080930309609997</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01477907941751615</v>
+        <v>0.08629356498985645</v>
       </c>
       <c r="V19" t="n">
-        <v>0.04425512409861517</v>
+        <v>0.0476512531560359</v>
       </c>
       <c r="W19" t="n">
-        <v>0.005089278601249101</v>
+        <v>0.006985344174000625</v>
       </c>
       <c r="X19" t="n">
-        <v>0.06025398179493843</v>
+        <v>0.0847738399512771</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.003115277200145884</v>
+        <v>0.03358245308211598</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.06035628051726179</v>
+        <v>0.000653178267898099</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.03348867133551751</v>
+        <v>0.03846302308747451</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.0802046066551728</v>
+        <v>0.08952509634815937</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.1416267520517099</v>
+        <v>0.104218744917061</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1701886183005658</v>
+        <v>0.1834270167920888</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06656981387659755</v>
+        <v>0.06956213975177394</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06234666381906399</v>
+        <v>0.0379421150190333</v>
       </c>
       <c r="H20" t="n">
-        <v>0.02395525201347831</v>
+        <v>0.07073268788296683</v>
       </c>
       <c r="I20" t="n">
-        <v>0.007645207839986653</v>
+        <v>0.06886239113997634</v>
       </c>
       <c r="J20" t="n">
-        <v>0.03292889118190814</v>
+        <v>0.05717972506850819</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01429228680205795</v>
+        <v>0.0341092365874509</v>
       </c>
       <c r="L20" t="n">
-        <v>0.08659718232495056</v>
+        <v>0.01926472938117342</v>
       </c>
       <c r="M20" t="n">
-        <v>0.06637801971492621</v>
+        <v>0.05446375892856624</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0101535376591879</v>
+        <v>0.07271033833904619</v>
       </c>
       <c r="O20" t="n">
-        <v>0.05958268125201907</v>
+        <v>0.07085773958571552</v>
       </c>
       <c r="P20" t="n">
-        <v>0.08159467537116299</v>
+        <v>0.06437744143732468</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.009226505030009276</v>
+        <v>0.03202236642911659</v>
       </c>
       <c r="R20" t="n">
-        <v>0.076238168653222</v>
+        <v>0.05141575773700513</v>
       </c>
       <c r="S20" t="n">
-        <v>0.02886176362958685</v>
+        <v>0.07153783740026443</v>
       </c>
       <c r="T20" t="n">
-        <v>0.01936789939712315</v>
+        <v>0.01350268321065696</v>
       </c>
       <c r="U20" t="n">
-        <v>0.003073636581705586</v>
+        <v>0.002177513531390714</v>
       </c>
       <c r="V20" t="n">
-        <v>0.0005176160925823743</v>
+        <v>0.002457983471579483</v>
       </c>
       <c r="W20" t="n">
-        <v>0.05470652381220414</v>
+        <v>0.03757972022875969</v>
       </c>
       <c r="X20" t="n">
-        <v>0.1003285782655914</v>
+        <v>0.06280530856517691</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.01182496949820069</v>
+        <v>0.004526831916215697</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.06875860759648203</v>
+        <v>0.0275174757620699</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.09657327135994187</v>
+        <v>0.06929414391100937</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.01847824822801116</v>
+        <v>0.005100074715219644</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.1106027853209154</v>
+        <v>0.08767697570785186</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.2530016805654129</v>
+        <v>0.239024940276163</v>
       </c>
       <c r="F21" t="n">
-        <v>0.003858949725558073</v>
+        <v>0.06760649459410102</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01627418441889041</v>
+        <v>0.03642533969686462</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02267038649950229</v>
+        <v>0.03984176236454563</v>
       </c>
       <c r="I21" t="n">
-        <v>0.07953987225788656</v>
+        <v>0.07593561836936602</v>
       </c>
       <c r="J21" t="n">
-        <v>0.04979305786452506</v>
+        <v>0.07499658412173706</v>
       </c>
       <c r="K21" t="n">
-        <v>0.03893365554430419</v>
+        <v>0.07805868306551828</v>
       </c>
       <c r="L21" t="n">
-        <v>0.008150818946512678</v>
+        <v>0.05876683708765051</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01353137674085256</v>
+        <v>0.02578976475528791</v>
       </c>
       <c r="N21" t="n">
-        <v>0.08436198930054198</v>
+        <v>0.01257319295793544</v>
       </c>
       <c r="O21" t="n">
-        <v>0.04067674373728724</v>
+        <v>0.02614873390573855</v>
       </c>
       <c r="P21" t="n">
-        <v>0.06803210998880953</v>
+        <v>0.02380976962140501</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.06998583278832284</v>
+        <v>0.03822417845051421</v>
       </c>
       <c r="R21" t="n">
-        <v>0.0116223962904194</v>
+        <v>0.04248129252898785</v>
       </c>
       <c r="S21" t="n">
-        <v>0.01217592845812647</v>
+        <v>0.03535608227016636</v>
       </c>
       <c r="T21" t="n">
-        <v>0.08010178132219595</v>
+        <v>0.07185612598542758</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04110412336000674</v>
+        <v>0.03678609971675405</v>
       </c>
       <c r="V21" t="n">
-        <v>1.185647350917132e-05</v>
+        <v>3.173050793437317e-06</v>
       </c>
       <c r="W21" t="n">
-        <v>0.07544849106509036</v>
+        <v>0.01305568800325801</v>
       </c>
       <c r="X21" t="n">
-        <v>0.08055638824546626</v>
+        <v>0.07892478883819948</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.01408764417168813</v>
+        <v>0.02440990809842211</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.05813082981012302</v>
+        <v>0.05692521230035837</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.06695363756893506</v>
+        <v>0.07564665295703268</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.06399794542144621</v>
+        <v>0.006378017259935974</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.04204389087708683</v>
+        <v>0.08351784939982017</v>
       </c>
     </row>
     <row r="22">
@@ -2495,79 +2495,79 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1845509243172354</v>
+        <v>0.1845651186938648</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06618861620364479</v>
+        <v>0.05695829434030215</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03488373859408408</v>
+        <v>0.0725596911222692</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04564617170415952</v>
+        <v>0.08465372840779133</v>
       </c>
       <c r="I22" t="n">
-        <v>0.05807764969972147</v>
+        <v>0.04076188074634096</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001870355437737393</v>
+        <v>0.001515767638398473</v>
       </c>
       <c r="K22" t="n">
-        <v>0.06390700222645941</v>
+        <v>0.02973380492449189</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01340846259010878</v>
+        <v>0.03298997230392291</v>
       </c>
       <c r="M22" t="n">
-        <v>0.03835129358851464</v>
+        <v>0.07188202673166731</v>
       </c>
       <c r="N22" t="n">
-        <v>0.01142409809479902</v>
+        <v>0.006871561479618133</v>
       </c>
       <c r="O22" t="n">
-        <v>0.005893970972312617</v>
+        <v>0.003565546846443363</v>
       </c>
       <c r="P22" t="n">
-        <v>0.05156261741434055</v>
+        <v>0.01857282281616916</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.05256794033194089</v>
+        <v>0.06730871571553029</v>
       </c>
       <c r="R22" t="n">
-        <v>0.01784129658475657</v>
+        <v>0.05133909554312804</v>
       </c>
       <c r="S22" t="n">
-        <v>0.05956834432345376</v>
+        <v>0.06293525145678637</v>
       </c>
       <c r="T22" t="n">
-        <v>0.02279816016954964</v>
+        <v>0.04738970848328869</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0461642020049766</v>
+        <v>0.08316242682111188</v>
       </c>
       <c r="V22" t="n">
-        <v>0.0001108142057282646</v>
+        <v>0.0004989123293702468</v>
       </c>
       <c r="W22" t="n">
-        <v>0.08289972205233354</v>
+        <v>0.02852996238429629</v>
       </c>
       <c r="X22" t="n">
-        <v>0.09104810374563993</v>
+        <v>0.06514766844523819</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.08045480512589746</v>
+        <v>0.03325520369276781</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.05625637392576232</v>
+        <v>0.01073328068002386</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.08885919364027529</v>
+        <v>0.06594468786641793</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.01021706736380357</v>
+        <v>0.06368998922462527</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.06454774548290573</v>
+        <v>0.07631341488650217</v>
       </c>
     </row>
     <row r="23">
@@ -2590,79 +2590,79 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.6054364471669623</v>
+        <v>0.5185127489778627</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07631379028868936</v>
+        <v>0.09023615916513356</v>
       </c>
       <c r="G23" t="n">
-        <v>0.002550332680171659</v>
+        <v>0.01071552999450551</v>
       </c>
       <c r="H23" t="n">
-        <v>0.03281813909321552</v>
+        <v>0.08009780452545159</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01502436665006094</v>
+        <v>0.005973678513701641</v>
       </c>
       <c r="J23" t="n">
-        <v>0.003414697990221185</v>
+        <v>0.03957880199806869</v>
       </c>
       <c r="K23" t="n">
-        <v>0.02591783862587538</v>
+        <v>0.007688712418951992</v>
       </c>
       <c r="L23" t="n">
-        <v>0.05533899527914329</v>
+        <v>0.01166426227679958</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0505124437398702</v>
+        <v>0.06415941611119329</v>
       </c>
       <c r="N23" t="n">
-        <v>0.03067266192763916</v>
+        <v>0.09655495787139209</v>
       </c>
       <c r="O23" t="n">
-        <v>0.1070215411377865</v>
+        <v>0.09614413527542293</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0265085696474382</v>
+        <v>0.02697055647665468</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.03664034759068079</v>
+        <v>0.04242942529826983</v>
       </c>
       <c r="R23" t="n">
-        <v>0.0465139264590996</v>
+        <v>0.01417446642407749</v>
       </c>
       <c r="S23" t="n">
-        <v>0.1160750421062545</v>
+        <v>0.06008382905600883</v>
       </c>
       <c r="T23" t="n">
-        <v>0.03736025864777177</v>
+        <v>0.08295634436900211</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0371862419865288</v>
+        <v>0.09317789164838571</v>
       </c>
       <c r="V23" t="n">
-        <v>0.01561194135860046</v>
+        <v>0.01656176380465551</v>
       </c>
       <c r="W23" t="n">
-        <v>0.07736947678560081</v>
+        <v>0.021350485712025</v>
       </c>
       <c r="X23" t="n">
-        <v>0.001650586585159404</v>
+        <v>0.02181812179686285</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.02757882051488986</v>
+        <v>0.001178927924947977</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.1156627463624274</v>
+        <v>0.02386724383838624</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.02602573066476361</v>
+        <v>0.0888245701512341</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.03623150387811144</v>
+        <v>0.003792915348868544</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.06930595810303712</v>
+        <v>0.05666116387261208</v>
       </c>
     </row>
     <row r="24">
@@ -2685,79 +2685,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1366663211549365</v>
+        <v>0.1377111347006321</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07522963895296284</v>
+        <v>0.07887875731945007</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01670689501013208</v>
+        <v>0.005512087972297723</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0578413046439517</v>
+        <v>0.06635308041517829</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01367251289096351</v>
+        <v>0.02731905773368577</v>
       </c>
       <c r="J24" t="n">
-        <v>0.06063831375276277</v>
+        <v>0.02089871221319587</v>
       </c>
       <c r="K24" t="n">
-        <v>0.03302838619828607</v>
+        <v>0.02365852752306355</v>
       </c>
       <c r="L24" t="n">
-        <v>0.03961326986397173</v>
+        <v>0.03637871239552921</v>
       </c>
       <c r="M24" t="n">
-        <v>0.04705966767232379</v>
+        <v>0.04458464695945589</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01036993164040369</v>
+        <v>0.03041065657142831</v>
       </c>
       <c r="O24" t="n">
-        <v>0.03960615013152826</v>
+        <v>0.04660008631415391</v>
       </c>
       <c r="P24" t="n">
-        <v>0.07863038861040389</v>
+        <v>0.05882414423273547</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.05730359896548281</v>
+        <v>0.03850411382135875</v>
       </c>
       <c r="R24" t="n">
-        <v>0.006589721291392252</v>
+        <v>0.05655270193195663</v>
       </c>
       <c r="S24" t="n">
-        <v>0.01328175876059132</v>
+        <v>0.08276086927230439</v>
       </c>
       <c r="T24" t="n">
-        <v>0.06818464752663513</v>
+        <v>0.0554383849651587</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07647193934144257</v>
+        <v>0.05976285901619759</v>
       </c>
       <c r="V24" t="n">
-        <v>0.01134371364730884</v>
+        <v>0.01526919717015761</v>
       </c>
       <c r="W24" t="n">
-        <v>0.02043365952106981</v>
+        <v>0.07286875522776327</v>
       </c>
       <c r="X24" t="n">
-        <v>0.08455916383519239</v>
+        <v>0.009364199829463434</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.0174144111947788</v>
+        <v>0.007389915523371145</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.08169844641900367</v>
+        <v>0.08288791374212058</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.06644058808726723</v>
+        <v>0.07813865888866793</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.02388189204214486</v>
+        <v>0.001643960961305837</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.1746164567897847</v>
+        <v>-0.2338513118146741</v>
       </c>
     </row>
     <row r="25">
@@ -2780,79 +2780,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.2070265848346879</v>
+        <v>0.213382911648271</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07593170202477972</v>
+        <v>0.02462798856036429</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08047466286517432</v>
+        <v>0.08737881798813911</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02334842288153062</v>
+        <v>0.006598163582521597</v>
       </c>
       <c r="I25" t="n">
-        <v>0.08536326872921322</v>
+        <v>0.07317327376114885</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02501895804912617</v>
+        <v>0.03045164584340152</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0428882522421456</v>
+        <v>0.03382688848869903</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01589160632769552</v>
+        <v>0.02568233894139995</v>
       </c>
       <c r="M25" t="n">
-        <v>0.006939913500622034</v>
+        <v>0.09041481954614804</v>
       </c>
       <c r="N25" t="n">
-        <v>0.00862007295907934</v>
+        <v>0.01203377992377196</v>
       </c>
       <c r="O25" t="n">
-        <v>0.03313422623741301</v>
+        <v>0.05809718855968808</v>
       </c>
       <c r="P25" t="n">
-        <v>0.02655106339575999</v>
+        <v>0.01783139260994146</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.1103848905381696</v>
+        <v>0.05990438903448179</v>
       </c>
       <c r="R25" t="n">
-        <v>0.09840468468542089</v>
+        <v>0.03249459051109246</v>
       </c>
       <c r="S25" t="n">
-        <v>0.01643029185789153</v>
+        <v>0.009753969336565254</v>
       </c>
       <c r="T25" t="n">
-        <v>0.002190200384715413</v>
+        <v>0.02048812307529015</v>
       </c>
       <c r="U25" t="n">
-        <v>0.003075467294314242</v>
+        <v>0.02463186660556978</v>
       </c>
       <c r="V25" t="n">
-        <v>0.06993004379584511</v>
+        <v>0.09860609239339199</v>
       </c>
       <c r="W25" t="n">
-        <v>0.02177261918796732</v>
+        <v>0.03908216270792812</v>
       </c>
       <c r="X25" t="n">
-        <v>0.0150731843270962</v>
+        <v>0.04765000994066493</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.08766204751645632</v>
+        <v>0.07967059250495935</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.08599220927338905</v>
+        <v>0.07642595614628193</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.01571764448491665</v>
+        <v>0.008655929371610077</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.04920456744127823</v>
+        <v>0.04252002056694019</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.2003489699192355</v>
+        <v>-0.1826443741354775</v>
       </c>
     </row>
     <row r="26">
@@ -2875,79 +2875,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1183240248245792</v>
+        <v>0.1202576346714386</v>
       </c>
       <c r="F26" t="n">
-        <v>0.06212032295185361</v>
+        <v>0.0798039776686276</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07271408765984148</v>
+        <v>0.03111465241611688</v>
       </c>
       <c r="H26" t="n">
-        <v>0.005134224463282726</v>
+        <v>0.003487912806038605</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01416093989201176</v>
+        <v>0.002419029505945962</v>
       </c>
       <c r="J26" t="n">
-        <v>0.03912611086549914</v>
+        <v>0.03952019614022444</v>
       </c>
       <c r="K26" t="n">
-        <v>0.008559978121501888</v>
+        <v>0.002789871183852479</v>
       </c>
       <c r="L26" t="n">
-        <v>0.02468575592597995</v>
+        <v>0.0200207426103658</v>
       </c>
       <c r="M26" t="n">
-        <v>0.07612838103568792</v>
+        <v>0.01714340009737627</v>
       </c>
       <c r="N26" t="n">
-        <v>0.001047137661409572</v>
+        <v>0.05982647923760389</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02571107358385658</v>
+        <v>0.1170211480109764</v>
       </c>
       <c r="P26" t="n">
-        <v>0.06159756605846379</v>
+        <v>0.02182080697617319</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.07760245996985132</v>
+        <v>0.1133185006697172</v>
       </c>
       <c r="R26" t="n">
-        <v>0.06223831900125221</v>
+        <v>0.05981262958521965</v>
       </c>
       <c r="S26" t="n">
-        <v>0.02819095643886802</v>
+        <v>0.0005759936649194108</v>
       </c>
       <c r="T26" t="n">
-        <v>0.007290130523819332</v>
+        <v>0.002305846757213021</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08233328146637821</v>
+        <v>0.1150629692264476</v>
       </c>
       <c r="V26" t="n">
-        <v>0.01092241040540735</v>
+        <v>0.003975199207583796</v>
       </c>
       <c r="W26" t="n">
-        <v>0.08076230729899206</v>
+        <v>0.1028272292476437</v>
       </c>
       <c r="X26" t="n">
-        <v>0.07657623195308222</v>
+        <v>0.05086037115423207</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.01226211390773474</v>
+        <v>0.04008326247149</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.07785377118038367</v>
+        <v>0.07868030387494583</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.06900001335074342</v>
+        <v>0.0197117812657845</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.02398242628409905</v>
+        <v>0.01781769622150157</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.183953743146329</v>
+        <v>0.1837546816765711</v>
       </c>
     </row>
     <row r="27">
@@ -2970,79 +2970,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.1465645408936255</v>
+        <v>0.1505508468062675</v>
       </c>
       <c r="F27" t="n">
-        <v>0.06573751390653687</v>
+        <v>0.1077020435585615</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07337361363907947</v>
+        <v>0.06961472607634411</v>
       </c>
       <c r="H27" t="n">
-        <v>0.001408632679194363</v>
+        <v>0.007874927107120417</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01506869317680009</v>
+        <v>0.00676180650416868</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01523336588493837</v>
+        <v>0.006338497457077093</v>
       </c>
       <c r="K27" t="n">
-        <v>0.06684921635419515</v>
+        <v>0.06552653942132645</v>
       </c>
       <c r="L27" t="n">
-        <v>0.00111119095077885</v>
+        <v>0.03036781829612107</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0863633663617128</v>
+        <v>0.1091513382615728</v>
       </c>
       <c r="N27" t="n">
-        <v>0.03215479252885953</v>
+        <v>0.01669637038516134</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0517281708178763</v>
+        <v>0.0598589325247493</v>
       </c>
       <c r="P27" t="n">
-        <v>0.05035873520480688</v>
+        <v>0.08886829317618894</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.08639818421699605</v>
+        <v>0.01208859318124495</v>
       </c>
       <c r="R27" t="n">
-        <v>0.07179721160644827</v>
+        <v>0.03283762432022616</v>
       </c>
       <c r="S27" t="n">
-        <v>0.07625961958886339</v>
+        <v>0.02075146730257417</v>
       </c>
       <c r="T27" t="n">
-        <v>0.004224924705288898</v>
+        <v>0.02721383310752008</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06292420459226944</v>
+        <v>0.05967149890604948</v>
       </c>
       <c r="V27" t="n">
-        <v>0.002101111935766007</v>
+        <v>0.02910896906515098</v>
       </c>
       <c r="W27" t="n">
-        <v>0.03590743635017164</v>
+        <v>0.02373114769470976</v>
       </c>
       <c r="X27" t="n">
-        <v>0.02282528107458871</v>
+        <v>0.02154578335232905</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.0518653947751132</v>
+        <v>0.06313254817461812</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.06296780082000375</v>
+        <v>0.0558972178701622</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.05670364783500272</v>
+        <v>0.001275769068439551</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.00663789099470915</v>
+        <v>0.08398425518858343</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.1763054335564136</v>
+        <v>0.2045339896368011</v>
       </c>
     </row>
     <row r="28">
@@ -3065,79 +3065,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1329195691947677</v>
+        <v>0.1379348147805059</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06022940671167142</v>
+        <v>0.01432883156118971</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04639189329773269</v>
+        <v>0.04395347728934838</v>
       </c>
       <c r="H28" t="n">
-        <v>0.03507586405923024</v>
+        <v>0.05147591281986102</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01168041609263985</v>
+        <v>0.07313587346050968</v>
       </c>
       <c r="J28" t="n">
-        <v>0.06408687188517631</v>
+        <v>0.07512226658887068</v>
       </c>
       <c r="K28" t="n">
-        <v>0.06160540354426</v>
+        <v>0.02196092713473839</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01968659493066661</v>
+        <v>0.07859330440046798</v>
       </c>
       <c r="M28" t="n">
-        <v>0.08146652310522882</v>
+        <v>0.004781109111898101</v>
       </c>
       <c r="N28" t="n">
-        <v>0.02432120369447765</v>
+        <v>0.0437403056497104</v>
       </c>
       <c r="O28" t="n">
-        <v>0.0529928064713426</v>
+        <v>0.06159742959036069</v>
       </c>
       <c r="P28" t="n">
-        <v>0.05431008612323214</v>
+        <v>0.08998787100958566</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.06538423961276907</v>
+        <v>0.1098555363476216</v>
       </c>
       <c r="R28" t="n">
-        <v>0.07734670984038618</v>
+        <v>0.04294265710269433</v>
       </c>
       <c r="S28" t="n">
-        <v>0.03091916741925822</v>
+        <v>0.05060350346880662</v>
       </c>
       <c r="T28" t="n">
-        <v>0.0812488154201944</v>
+        <v>0.06549775911947112</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04940695249217771</v>
+        <v>0.06516944558516387</v>
       </c>
       <c r="V28" t="n">
-        <v>0.02740924107567495</v>
+        <v>0.01619541933502403</v>
       </c>
       <c r="W28" t="n">
-        <v>0.03176990059256245</v>
+        <v>0.001056885994249942</v>
       </c>
       <c r="X28" t="n">
-        <v>0.0006089687386275423</v>
+        <v>9.440878773343449e-05</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.06815239342440144</v>
+        <v>0.01243296161705578</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.003455632587899916</v>
+        <v>0.001243509207047814</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.03769988225701488</v>
+        <v>0.05307517754950471</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.01475102662337485</v>
+        <v>0.0231554272690861</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.02682040433749544</v>
+        <v>-0.02339979522631088</v>
       </c>
     </row>
     <row r="29">
@@ -3160,79 +3160,79 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.1773901918717437</v>
+        <v>0.1465937408441556</v>
       </c>
       <c r="F29" t="n">
-        <v>0.04962808428929427</v>
+        <v>0.09698456566430556</v>
       </c>
       <c r="G29" t="n">
-        <v>0.005983746892258292</v>
+        <v>0.02744139137249283</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0519557471656</v>
+        <v>0.01275421461668941</v>
       </c>
       <c r="I29" t="n">
-        <v>0.03541453336794535</v>
+        <v>0.02971030046445636</v>
       </c>
       <c r="J29" t="n">
-        <v>0.005224890713712079</v>
+        <v>0.00589540865864677</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0406695883632483</v>
+        <v>0.001953949287737273</v>
       </c>
       <c r="L29" t="n">
-        <v>0.04721330693317731</v>
+        <v>0.0201792102279951</v>
       </c>
       <c r="M29" t="n">
-        <v>0.06457757844488481</v>
+        <v>0.08710420201834826</v>
       </c>
       <c r="N29" t="n">
-        <v>0.08756395652764334</v>
+        <v>0.03805936405567382</v>
       </c>
       <c r="O29" t="n">
-        <v>0.08621330869630711</v>
+        <v>0.05098167914236942</v>
       </c>
       <c r="P29" t="n">
-        <v>0.04417841711853991</v>
+        <v>0.07689134583806852</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.07641326251557708</v>
+        <v>0.08750816646540126</v>
       </c>
       <c r="R29" t="n">
-        <v>0.04788734024511104</v>
+        <v>0.09188937584560265</v>
       </c>
       <c r="S29" t="n">
-        <v>0.003828807393479006</v>
+        <v>0.03810274441710138</v>
       </c>
       <c r="T29" t="n">
-        <v>0.08742158902247343</v>
+        <v>0.07334678079376533</v>
       </c>
       <c r="U29" t="n">
-        <v>0.006779141795818215</v>
+        <v>0.0375841501876962</v>
       </c>
       <c r="V29" t="n">
-        <v>0.03013577171195717</v>
+        <v>0.07885411559818438</v>
       </c>
       <c r="W29" t="n">
-        <v>0.06998698878535192</v>
+        <v>0.05286922008139742</v>
       </c>
       <c r="X29" t="n">
-        <v>0.01058671801103646</v>
+        <v>0.006579088561303911</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.0818720722962258</v>
+        <v>0.0053508246643968</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.001318517666219391</v>
+        <v>0.002141057392835499</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.03625575871922122</v>
+        <v>0.06123557640138096</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.02889087332491843</v>
+        <v>0.01658326824415124</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.05958840055223665</v>
+        <v>0.03358686589417845</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 30/DAX30_efficient_portfolios_and_returns_with_prediction_annual.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 30/DAX30_efficient_portfolios_and_returns_with_prediction_annual.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.2225740415103482</v>
+        <v>0.2287080589452632</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04211428586183639</v>
+        <v>0.01194671177901098</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07812631280688864</v>
+        <v>0.0587326898320023</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001387453637646905</v>
+        <v>0.01978912833175768</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002048095479631443</v>
+        <v>0.02295671856233676</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03775589789545469</v>
+        <v>0.08209935206684831</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07554670530756537</v>
+        <v>0.08282515942630611</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004255508768081201</v>
+        <v>0.06614856247103243</v>
       </c>
       <c r="M2" t="n">
-        <v>0.09335425962229567</v>
+        <v>0.0002646827032213009</v>
       </c>
       <c r="N2" t="n">
-        <v>0.04369879313409124</v>
+        <v>0.008072712407013433</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0245448121663068</v>
+        <v>0.08297536287455559</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0987945114472263</v>
+        <v>0.06682842562948929</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01090403795687174</v>
+        <v>0.02330907021803713</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05457859757743165</v>
+        <v>0.02767922035228213</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01886657795049884</v>
+        <v>0.07659576114310927</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0626527400533106</v>
+        <v>0.06955818920090824</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0155009955682705</v>
+        <v>0.001962908948477522</v>
       </c>
       <c r="V2" t="n">
-        <v>0.09683482622805316</v>
+        <v>0.04188177605008166</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02445417305423311</v>
+        <v>0.08762438252979624</v>
       </c>
       <c r="X2" t="n">
-        <v>0.003901319128209861</v>
+        <v>0.003889896266822732</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.008660784266264683</v>
+        <v>0.008317974335220836</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.006774372023734444</v>
+        <v>0.06441721377525976</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.08586227501880363</v>
+        <v>0.03371530124599945</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.1093826650472932</v>
+        <v>0.05840879985043104</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.08390303802875526</v>
+        <v>0.09124040616993714</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.826374364495644</v>
+        <v>0.3579582681544952</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1164161828590138</v>
+        <v>0.001096362559272416</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03228606299853651</v>
+        <v>0.0232676200626288</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1196684165766784</v>
+        <v>0.000473042224827288</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001201952527170178</v>
+        <v>0.03123544457763687</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01705222922432653</v>
+        <v>0.02706918115847063</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0008897013580057968</v>
+        <v>0.08509332143003311</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1005175708654381</v>
+        <v>0.05667914972479083</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02370652356999661</v>
+        <v>0.06675386929534943</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0233866446255425</v>
+        <v>0.1088637508372613</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07846314096425627</v>
+        <v>0.08433544340424549</v>
       </c>
       <c r="P3" t="n">
-        <v>0.017803073774824</v>
+        <v>0.04502872028185195</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02635128470826099</v>
+        <v>0.1101639488583874</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08329073990862418</v>
+        <v>0.01574789750593257</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01689399417363388</v>
+        <v>0.04435824013272079</v>
       </c>
       <c r="T3" t="n">
-        <v>0.04630564539747214</v>
+        <v>0.005763930781374306</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06846873504558761</v>
+        <v>0.001065035178809497</v>
       </c>
       <c r="V3" t="n">
-        <v>0.06748570105751213</v>
+        <v>0.01524866284359325</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01901336365302211</v>
+        <v>0.01989816327918442</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0138581751299392</v>
+        <v>0.04071223783326164</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0606758544842104</v>
+        <v>0.04423120659105236</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.007728481388585716</v>
+        <v>0.0007098933910358277</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.05133567230417112</v>
+        <v>0.07013574126408821</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.008282610679645027</v>
+        <v>0.1020691367841917</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1299686832758773</v>
+        <v>0.147159293691548</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1481933220191133</v>
+        <v>0.1721271671431292</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05002850807233519</v>
+        <v>0.04210558829613614</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01848401134281829</v>
+        <v>0.05410067926010559</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03409873991417128</v>
+        <v>0.01793788793633523</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01571112327590136</v>
+        <v>0.09025324302167391</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02894103431085739</v>
+        <v>0.04074913629183028</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06763596496298233</v>
+        <v>0.08591658769910006</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05217235319886858</v>
+        <v>0.05537975071600571</v>
       </c>
       <c r="M4" t="n">
-        <v>0.07414039077557261</v>
+        <v>0.05925111807471952</v>
       </c>
       <c r="N4" t="n">
-        <v>0.04578830393953547</v>
+        <v>0.05823584325564114</v>
       </c>
       <c r="O4" t="n">
-        <v>0.09224557490334877</v>
+        <v>0.02189417681411506</v>
       </c>
       <c r="P4" t="n">
-        <v>0.001643581122264209</v>
+        <v>0.02177023860638957</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0006587543460040691</v>
+        <v>0.003118534424523577</v>
       </c>
       <c r="R4" t="n">
-        <v>0.06562233979884195</v>
+        <v>0.0284489303723451</v>
       </c>
       <c r="S4" t="n">
-        <v>0.07445148019356335</v>
+        <v>0.01233122699840437</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01191241625568132</v>
+        <v>0.04442675319556772</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05240191064952476</v>
+        <v>0.06335109221334333</v>
       </c>
       <c r="V4" t="n">
-        <v>0.08850675816088618</v>
+        <v>0.07703838139564644</v>
       </c>
       <c r="W4" t="n">
-        <v>0.002702081690937483</v>
+        <v>0.06664885307524397</v>
       </c>
       <c r="X4" t="n">
-        <v>0.04571936138504131</v>
+        <v>0.05963251481848036</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.002824533648041828</v>
+        <v>0.001413437816890359</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.09092704589445112</v>
+        <v>0.00692362105647021</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.07137208881189808</v>
+        <v>0.02719525494089333</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.01201164334647318</v>
+        <v>0.06187714972013924</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.763411951047763</v>
+        <v>-0.7945873311133941</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.8362896484393023</v>
+        <v>0.1812763767569796</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002615052697540692</v>
+        <v>0.06940056712065136</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00823578913755414</v>
+        <v>0.02536214092428037</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02838347012446998</v>
+        <v>0.0571666902003662</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04980363960302506</v>
+        <v>0.07273471720229198</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07777852337208019</v>
+        <v>0.01861914971581026</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03707415431144609</v>
+        <v>0.04639860086432123</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05923459001475107</v>
+        <v>0.07449109941920072</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04117244379100362</v>
+        <v>0.01429819620521517</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02428226967927984</v>
+        <v>0.02873413116653149</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1003476594676843</v>
+        <v>0.001328447621168864</v>
       </c>
       <c r="P5" t="n">
-        <v>0.05266257971977263</v>
+        <v>0.005174148845842898</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1051556670329962</v>
+        <v>0.0003449920893527909</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02910397184808529</v>
+        <v>0.07233085059348439</v>
       </c>
       <c r="S5" t="n">
-        <v>0.06790570263144162</v>
+        <v>0.03495995521723588</v>
       </c>
       <c r="T5" t="n">
-        <v>0.005285086574268746</v>
+        <v>0.08535837341088763</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07244861894839573</v>
+        <v>0.07993238448188203</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03861689330005361</v>
+        <v>0.01244221805470278</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0160135544407873</v>
+        <v>0.05896124717678951</v>
       </c>
       <c r="X5" t="n">
-        <v>0.04247524821594395</v>
+        <v>0.05467475907242551</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001902891266353632</v>
+        <v>0.003816980806057801</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.06283054728695978</v>
+        <v>0.04559153221994448</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.04476626266072957</v>
+        <v>0.06204821114432462</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.03190538387537704</v>
+        <v>0.07583060644723201</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.6487145077394124</v>
+        <v>-0.6515421682246798</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.3075283224706325</v>
+        <v>0.2963092546620298</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08637528180725089</v>
+        <v>0.01494464866186351</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02555139803785099</v>
+        <v>0.007384294533628401</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07839976384242064</v>
+        <v>0.001308848983900095</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04943473292405638</v>
+        <v>0.09568648389527806</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08933436640841634</v>
+        <v>0.05472224796460056</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01798608472349553</v>
+        <v>0.03696445193436317</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007228685559013305</v>
+        <v>0.00447561253993347</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01088738626150234</v>
+        <v>0.03533615044800312</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01763163148018641</v>
+        <v>0.001772983931100553</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04312206506933329</v>
+        <v>0.0245583437948336</v>
       </c>
       <c r="P6" t="n">
-        <v>0.08567900296631352</v>
+        <v>0.09582670152264317</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0182349672261259</v>
+        <v>0.01844271906322997</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01834503581514881</v>
+        <v>0.06544134385652486</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01962570570126118</v>
+        <v>0.07287224614293043</v>
       </c>
       <c r="T6" t="n">
-        <v>0.06395711216356095</v>
+        <v>0.0458481849881689</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03357981305340516</v>
+        <v>0.09297907223963459</v>
       </c>
       <c r="V6" t="n">
-        <v>0.02609399134760051</v>
+        <v>0.005036352700665909</v>
       </c>
       <c r="W6" t="n">
-        <v>0.08322022948749645</v>
+        <v>0.03131563015758999</v>
       </c>
       <c r="X6" t="n">
-        <v>0.07231483326327942</v>
+        <v>0.04597470261368538</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.05634310079594007</v>
+        <v>0.08653989030276796</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.08255987538229081</v>
+        <v>0.1070633396739145</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.01241366194909393</v>
+        <v>0.001435445343947702</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.001681274734957262</v>
+        <v>0.05407030470679199</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.2327571647385957</v>
+        <v>0.1996875845601599</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.4254330502633752</v>
+        <v>0.4557439205157754</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06496362850954897</v>
+        <v>0.09410957178690715</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01246628721194875</v>
+        <v>0.01934641394372802</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02205726977133597</v>
+        <v>0.003427547762258539</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1172791571785645</v>
+        <v>0.08864946957854766</v>
       </c>
       <c r="J7" t="n">
-        <v>0.003430197115815663</v>
+        <v>0.0003590609108953672</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06737065970743737</v>
+        <v>0.08159146436179916</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07218136706700964</v>
+        <v>0.01343745684939972</v>
       </c>
       <c r="M7" t="n">
-        <v>0.005407607499891699</v>
+        <v>0.04423550707385184</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03031109582322987</v>
+        <v>0.09496363571008076</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0107037129594896</v>
+        <v>0.003456779433675395</v>
       </c>
       <c r="P7" t="n">
-        <v>0.06744496291430362</v>
+        <v>0.06112575004330276</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07898398389825639</v>
+        <v>0.005017264650321701</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01072739776941184</v>
+        <v>0.01281619991012611</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01946038555436214</v>
+        <v>0.004349996744311216</v>
       </c>
       <c r="T7" t="n">
-        <v>0.05167678642484053</v>
+        <v>0.1028683423645622</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0007327585149105472</v>
+        <v>0.003086380411242684</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1197115170215126</v>
+        <v>0.09590009936066192</v>
       </c>
       <c r="W7" t="n">
-        <v>0.07198461654043169</v>
+        <v>0.005441663462605387</v>
       </c>
       <c r="X7" t="n">
-        <v>0.1190261352117755</v>
+        <v>0.05509972438428852</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.00522281818056235</v>
+        <v>0.0003080373138242859</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.02710658228713569</v>
+        <v>0.09703146813680502</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01261293040701836</v>
+        <v>0.01590835114651867</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.009138142431206695</v>
+        <v>0.09746981466028598</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3233338588108007</v>
+        <v>0.3882072456746861</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2728209168865608</v>
+        <v>0.272598005922748</v>
       </c>
       <c r="F8" t="n">
-        <v>0.009458264140879503</v>
+        <v>0.09406526157822398</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05848464627695107</v>
+        <v>0.0600487880509318</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02990731180967447</v>
+        <v>0.08204679352439122</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09518112034451005</v>
+        <v>0.03309298412613899</v>
       </c>
       <c r="J8" t="n">
-        <v>0.004771442499784807</v>
+        <v>0.01172649672008755</v>
       </c>
       <c r="K8" t="n">
-        <v>0.09057243847899882</v>
+        <v>0.05421240113105089</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003638083850745127</v>
+        <v>0.0109170765620053</v>
       </c>
       <c r="M8" t="n">
-        <v>0.003163930563162538</v>
+        <v>0.003225689181355678</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0248606560278981</v>
+        <v>0.01351568055847058</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01223954178092104</v>
+        <v>0.01160968770878685</v>
       </c>
       <c r="P8" t="n">
-        <v>0.05428390087496571</v>
+        <v>0.09361615794778202</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.05368143148697278</v>
+        <v>0.006588109541546192</v>
       </c>
       <c r="R8" t="n">
-        <v>0.07853014618825004</v>
+        <v>0.09900461739934348</v>
       </c>
       <c r="S8" t="n">
-        <v>0.08183884028313973</v>
+        <v>0.06126796587124237</v>
       </c>
       <c r="T8" t="n">
-        <v>0.02766531584922978</v>
+        <v>0.000600314255988108</v>
       </c>
       <c r="U8" t="n">
-        <v>0.004806491689099828</v>
+        <v>0.01186494815869408</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01886130091938281</v>
+        <v>0.02371587386929339</v>
       </c>
       <c r="W8" t="n">
-        <v>0.05364865510612329</v>
+        <v>0.02932590811433844</v>
       </c>
       <c r="X8" t="n">
-        <v>0.02220960172722713</v>
+        <v>0.02301078666786223</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.05162108606399005</v>
+        <v>0.1041992152648757</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.08513113416379417</v>
+        <v>0.004470093923212736</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.05378825303785745</v>
+        <v>0.1049206773803621</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0816564068364416</v>
+        <v>0.06295447246401625</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1438878313958999</v>
+        <v>0.1594138041217252</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.4632279857538751</v>
+        <v>0.5761144977473507</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02815667923347025</v>
+        <v>0.002106583977880608</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04253461674762565</v>
+        <v>0.05287708831742233</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08808121038281867</v>
+        <v>0.03197467900878661</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09231412209091913</v>
+        <v>0.01010357827075882</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09439693054375532</v>
+        <v>0.1111462002953407</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01603949950264781</v>
+        <v>0.001061333536810393</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02717637242992037</v>
+        <v>0.0815255518974648</v>
       </c>
       <c r="M9" t="n">
-        <v>0.005627142166266971</v>
+        <v>0.009144197041615917</v>
       </c>
       <c r="N9" t="n">
-        <v>0.06952078835909885</v>
+        <v>0.04504559457908859</v>
       </c>
       <c r="O9" t="n">
-        <v>0.009899827155353626</v>
+        <v>0.003453123867410015</v>
       </c>
       <c r="P9" t="n">
-        <v>0.04551402843533509</v>
+        <v>0.1037297312206104</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02899241418730645</v>
+        <v>0.01272493243353799</v>
       </c>
       <c r="R9" t="n">
-        <v>0.04570575948930309</v>
+        <v>0.0878537085937105</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03374560605282299</v>
+        <v>0.09506369518567237</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01683303030237887</v>
+        <v>0.003208696257509884</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03063796167366375</v>
+        <v>0.04236309390779312</v>
       </c>
       <c r="V9" t="n">
-        <v>0.07224411149602296</v>
+        <v>0.06451320411535738</v>
       </c>
       <c r="W9" t="n">
-        <v>0.03402516103995092</v>
+        <v>0.05492686309788408</v>
       </c>
       <c r="X9" t="n">
-        <v>0.007385223157385336</v>
+        <v>0.008313817941221026</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.04392322494660551</v>
+        <v>0.01167356854765302</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.07256103786343215</v>
+        <v>0.1014807260232124</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.0404707770722563</v>
+        <v>0.03370920569718933</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.05421447567165968</v>
+        <v>0.03200082618606974</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.1833736205203756</v>
+        <v>0.2077918103965916</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2971163186097524</v>
+        <v>0.3815904180636068</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07127865686757386</v>
+        <v>0.0169477452947462</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05566710687872944</v>
+        <v>0.05643208961126246</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03555421739243657</v>
+        <v>0.05627645459402242</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01189779377941186</v>
+        <v>0.02559648274603607</v>
       </c>
       <c r="J10" t="n">
-        <v>0.009050196126083017</v>
+        <v>0.006952248703676799</v>
       </c>
       <c r="K10" t="n">
-        <v>0.005178012554149486</v>
+        <v>0.0152063215981525</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01641736866165458</v>
+        <v>0.03011023894295084</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03476323972211407</v>
+        <v>0.07765633060505631</v>
       </c>
       <c r="N10" t="n">
-        <v>0.09676956417513143</v>
+        <v>0.01545137153460851</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04648764556563009</v>
+        <v>0.07283414007209614</v>
       </c>
       <c r="P10" t="n">
-        <v>0.007794437509947207</v>
+        <v>0.0159669155459787</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.05953893543417251</v>
+        <v>0.05860609716197685</v>
       </c>
       <c r="R10" t="n">
-        <v>0.06911278493385069</v>
+        <v>0.0770133923461449</v>
       </c>
       <c r="S10" t="n">
-        <v>0.06873715965339104</v>
+        <v>0.04287542428269204</v>
       </c>
       <c r="T10" t="n">
-        <v>0.06184514915789619</v>
+        <v>0.05794770790337872</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03285309944381513</v>
+        <v>0.07656543687553988</v>
       </c>
       <c r="V10" t="n">
-        <v>0.002798297700588548</v>
+        <v>0.02013572156199939</v>
       </c>
       <c r="W10" t="n">
-        <v>0.04335248741948849</v>
+        <v>0.07995499957120084</v>
       </c>
       <c r="X10" t="n">
-        <v>0.07754436298614081</v>
+        <v>0.01161621606911497</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.08698783432439457</v>
+        <v>0.05403495045394544</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.03668630197875891</v>
+        <v>0.04564405395828931</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.06588583688751729</v>
+        <v>0.08433646060502469</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.003799510847124367</v>
+        <v>0.001839199962106051</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.1561912374687073</v>
+        <v>-0.1238758092119051</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7726019833442939</v>
+        <v>0.8308781969694314</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002869415046127375</v>
+        <v>0.02828568431754505</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06296552851064545</v>
+        <v>0.004760019472398149</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07652095469101425</v>
+        <v>0.001579678417204574</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0164500735780329</v>
+        <v>0.01470884292716613</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01058505724093371</v>
+        <v>0.003034458366050429</v>
       </c>
       <c r="K11" t="n">
-        <v>0.09607264516918679</v>
+        <v>0.06205070344524994</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0314312616976436</v>
+        <v>0.04515323105485201</v>
       </c>
       <c r="M11" t="n">
-        <v>0.009901860597970262</v>
+        <v>0.04317486325905437</v>
       </c>
       <c r="N11" t="n">
-        <v>0.065810738752134</v>
+        <v>0.01306237066687594</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02186092713053496</v>
+        <v>0.05476521764616378</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1007219338508951</v>
+        <v>0.07634528366356745</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.06216825334510685</v>
+        <v>0.02314064228242989</v>
       </c>
       <c r="R11" t="n">
-        <v>0.06689484577685507</v>
+        <v>0.07528824385134911</v>
       </c>
       <c r="S11" t="n">
-        <v>0.09086610857865444</v>
+        <v>0.03526514070591654</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01759789869773482</v>
+        <v>0.08990444643066839</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04424049795878341</v>
+        <v>0.104431328542039</v>
       </c>
       <c r="V11" t="n">
-        <v>0.03711251421073474</v>
+        <v>0.03678080072856353</v>
       </c>
       <c r="W11" t="n">
-        <v>0.005875080264445292</v>
+        <v>0.1039706119610107</v>
       </c>
       <c r="X11" t="n">
-        <v>0.07940292222389012</v>
+        <v>0.03588355516719726</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01758008961799294</v>
+        <v>0.04502882833543197</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.06296123153773224</v>
+        <v>0.03993653248436486</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.005791594774783913</v>
+        <v>0.0169576161214752</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.01431856674816764</v>
+        <v>0.04649190015342565</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.125363707273024</v>
+        <v>-0.1069914105843795</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1898441587523168</v>
+        <v>0.1849522741816699</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03652415226290085</v>
+        <v>0.08365566548635527</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001891687435430763</v>
+        <v>0.08688826194767048</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03233725398954861</v>
+        <v>0.02763496849898087</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09157450481796793</v>
+        <v>0.01947823345733825</v>
       </c>
       <c r="J12" t="n">
-        <v>0.05922431862685055</v>
+        <v>0.0594035710314005</v>
       </c>
       <c r="K12" t="n">
-        <v>0.07387353587328897</v>
+        <v>0.01129183546498777</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002347849783910633</v>
+        <v>0.004582286854824754</v>
       </c>
       <c r="M12" t="n">
-        <v>0.05878662253432118</v>
+        <v>0.0864016565155675</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01042517327520115</v>
+        <v>0.009451837648333856</v>
       </c>
       <c r="O12" t="n">
-        <v>0.04648500502596618</v>
+        <v>0.03690709957461004</v>
       </c>
       <c r="P12" t="n">
-        <v>0.08409422857262157</v>
+        <v>0.0585421365490541</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.02263014912272299</v>
+        <v>0.0531825199130088</v>
       </c>
       <c r="R12" t="n">
-        <v>0.08305330103077944</v>
+        <v>0.01210574713990474</v>
       </c>
       <c r="S12" t="n">
-        <v>0.002119293124547561</v>
+        <v>0.0005337405805633813</v>
       </c>
       <c r="T12" t="n">
-        <v>0.05082335757401318</v>
+        <v>0.004931547342956013</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09274246221891955</v>
+        <v>0.06248291159372955</v>
       </c>
       <c r="V12" t="n">
-        <v>0.02602262122424586</v>
+        <v>0.01310427597911867</v>
       </c>
       <c r="W12" t="n">
-        <v>0.02653464955679945</v>
+        <v>0.0886691093988722</v>
       </c>
       <c r="X12" t="n">
-        <v>0.05767465597656893</v>
+        <v>0.06807078821904465</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.01189381126291311</v>
+        <v>0.005780440281975279</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.05136125438305954</v>
+        <v>0.09230430030492877</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.06648778028216552</v>
+        <v>0.08787391798956339</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01109233204525665</v>
+        <v>0.02672314822721109</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.2174705154782628</v>
+        <v>0.2089564476610566</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.7417000053225681</v>
+        <v>0.8026921913983371</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01075526295988023</v>
+        <v>0.03032686507690807</v>
       </c>
       <c r="G13" t="n">
-        <v>0.006217593497427851</v>
+        <v>0.01411470651684437</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09801357550295903</v>
+        <v>0.09130325186038869</v>
       </c>
       <c r="I13" t="n">
-        <v>0.009937348249909002</v>
+        <v>0.02403670384484322</v>
       </c>
       <c r="J13" t="n">
-        <v>0.05157596905828253</v>
+        <v>0.01217357978429068</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01192350256378309</v>
+        <v>0.01582628906337158</v>
       </c>
       <c r="L13" t="n">
-        <v>0.005197481881774726</v>
+        <v>0.03822134553063565</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1033877789001149</v>
+        <v>0.01954336129363923</v>
       </c>
       <c r="N13" t="n">
-        <v>0.006086900393884072</v>
+        <v>0.03862244689216836</v>
       </c>
       <c r="O13" t="n">
-        <v>0.07812383611304456</v>
+        <v>0.01912233250225931</v>
       </c>
       <c r="P13" t="n">
-        <v>0.02491063291296281</v>
+        <v>0.031013508130762</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02487776496822706</v>
+        <v>0.06160976543729179</v>
       </c>
       <c r="R13" t="n">
-        <v>0.08008956366899499</v>
+        <v>0.07063235854679516</v>
       </c>
       <c r="S13" t="n">
-        <v>0.102693397483299</v>
+        <v>0.1036801427118966</v>
       </c>
       <c r="T13" t="n">
-        <v>0.05520040289178191</v>
+        <v>0.01127298378792438</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01503535136137754</v>
+        <v>0.04196864258408197</v>
       </c>
       <c r="V13" t="n">
-        <v>0.08144741549482293</v>
+        <v>0.08196646733789976</v>
       </c>
       <c r="W13" t="n">
-        <v>0.07214555576538928</v>
+        <v>0.09065170036642377</v>
       </c>
       <c r="X13" t="n">
-        <v>0.03468386529831496</v>
+        <v>0.01742649876215695</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.005448704588759671</v>
+        <v>0.0004664098871554287</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.03765203265574547</v>
+        <v>0.0650362693997244</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.05366973903238563</v>
+        <v>0.04060821346290815</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.03092632475687901</v>
+        <v>0.08037615721963057</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.1798461969837346</v>
+        <v>0.176582253717831</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2254192387557821</v>
+        <v>0.2083568741869988</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08125625046576392</v>
+        <v>0.05418053626189007</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1015097800574602</v>
+        <v>0.03093289807892009</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01736719765176287</v>
+        <v>0.0533829955919075</v>
       </c>
       <c r="I14" t="n">
-        <v>0.003108619261864869</v>
+        <v>0.03998614660737774</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02593131527579443</v>
+        <v>0.06030011566485003</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03499117536778749</v>
+        <v>0.04097452167403578</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02643844782054362</v>
+        <v>0.03433688580575828</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03067462038905436</v>
+        <v>0.06971878435099371</v>
       </c>
       <c r="N14" t="n">
-        <v>0.051970453360924</v>
+        <v>0.01948494243602367</v>
       </c>
       <c r="O14" t="n">
-        <v>0.05433606333213856</v>
+        <v>0.0383464954979532</v>
       </c>
       <c r="P14" t="n">
-        <v>0.04371818891657137</v>
+        <v>0.03849702539300234</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.08459259438697801</v>
+        <v>0.04729000273611124</v>
       </c>
       <c r="R14" t="n">
-        <v>0.02931062511918767</v>
+        <v>0.08264726862332972</v>
       </c>
       <c r="S14" t="n">
-        <v>0.05484686728215611</v>
+        <v>0.01767308250267165</v>
       </c>
       <c r="T14" t="n">
-        <v>0.07065874138148835</v>
+        <v>0.00581191321682407</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06642119391420653</v>
+        <v>0.07316058666372662</v>
       </c>
       <c r="V14" t="n">
-        <v>0.09450681407783729</v>
+        <v>0.07953084022023686</v>
       </c>
       <c r="W14" t="n">
-        <v>0.006004056259051919</v>
+        <v>0.0009954423134751061</v>
       </c>
       <c r="X14" t="n">
-        <v>0.00133939648738853</v>
+        <v>0.02354336230484525</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.02142028255319732</v>
+        <v>0.06209086213234202</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.05927439928259452</v>
+        <v>0.05203261299783533</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.03733571454981227</v>
+        <v>0.0747414088826074</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.002987202806435775</v>
+        <v>0.0003412700432823755</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.190004964532156</v>
+        <v>0.1783164488523147</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.00680726769137</v>
+        <v>0.3138866437480358</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06457446899975261</v>
+        <v>0.07847468205129701</v>
       </c>
       <c r="G15" t="n">
-        <v>0.007465514054188807</v>
+        <v>0.007523280035302742</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04273662964828896</v>
+        <v>0.002732771031797344</v>
       </c>
       <c r="I15" t="n">
-        <v>0.100237324919956</v>
+        <v>0.03318914909030935</v>
       </c>
       <c r="J15" t="n">
-        <v>4.54326581561564e-05</v>
+        <v>0.08700743605559294</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1106424903918298</v>
+        <v>0.07399363615350352</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01969109592581387</v>
+        <v>0.02793264185025929</v>
       </c>
       <c r="M15" t="n">
-        <v>0.004847984261274398</v>
+        <v>0.02546707912210303</v>
       </c>
       <c r="N15" t="n">
-        <v>0.03649383620938767</v>
+        <v>0.01304615275104247</v>
       </c>
       <c r="O15" t="n">
-        <v>0.04436023309459372</v>
+        <v>0.08293596444399069</v>
       </c>
       <c r="P15" t="n">
-        <v>0.07853562022973341</v>
+        <v>0.05106480085121085</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.05631512902618277</v>
+        <v>0.02552851899891576</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01828696849639204</v>
+        <v>0.09680893799235028</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0892158734791563</v>
+        <v>0.1050114388329013</v>
       </c>
       <c r="T15" t="n">
-        <v>0.00320492523396258</v>
+        <v>0.03735460689155004</v>
       </c>
       <c r="U15" t="n">
-        <v>0.003287165252663917</v>
+        <v>0.02947944345485673</v>
       </c>
       <c r="V15" t="n">
-        <v>0.02274670046776772</v>
+        <v>0.04389736843419807</v>
       </c>
       <c r="W15" t="n">
-        <v>0.0153323826052796</v>
+        <v>0.02131617011805961</v>
       </c>
       <c r="X15" t="n">
-        <v>0.1162065497785745</v>
+        <v>0.01936118791185074</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.05193988152830491</v>
+        <v>0.01533352669587269</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.006041963098466629</v>
+        <v>0.04101234692060382</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.1012575556591326</v>
+        <v>0.0631952334432373</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.006534274981141241</v>
+        <v>0.01833362686919435</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.2367767550015582</v>
+        <v>0.2300177221947939</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2017095033533971</v>
+        <v>0.2510224800113364</v>
       </c>
       <c r="F16" t="n">
-        <v>0.05337561656987175</v>
+        <v>0.07996436303614331</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06095565816123896</v>
+        <v>0.09096359804220697</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03348275347194246</v>
+        <v>0.05790313318205128</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0008852908564395803</v>
+        <v>0.02208030060040709</v>
       </c>
       <c r="J16" t="n">
-        <v>0.08641270397210389</v>
+        <v>0.04201575325309241</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01027524561554605</v>
+        <v>0.0008769207510978542</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03218533588897649</v>
+        <v>0.01524872864213165</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0004423482562176439</v>
+        <v>0.06070117548573294</v>
       </c>
       <c r="N16" t="n">
-        <v>0.07448392714380235</v>
+        <v>0.02835424725932243</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01033529141342737</v>
+        <v>0.04565826746857948</v>
       </c>
       <c r="P16" t="n">
-        <v>0.006366259129277749</v>
+        <v>0.01121416387878138</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.03604743768512451</v>
+        <v>0.007329928471811022</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0578152024028749</v>
+        <v>0.06900087061765353</v>
       </c>
       <c r="S16" t="n">
-        <v>0.08479328168327663</v>
+        <v>0.08035202882650014</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02623926054294051</v>
+        <v>0.004558525914904357</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04550834306534771</v>
+        <v>0.003679023672480175</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0491810601509677</v>
+        <v>0.0869011287139437</v>
       </c>
       <c r="W16" t="n">
-        <v>0.00129412249742094</v>
+        <v>0.003571930890617127</v>
       </c>
       <c r="X16" t="n">
-        <v>0.08715803588436127</v>
+        <v>0.02242138339776492</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.08405833048574499</v>
+        <v>0.0253979907941028</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.1014908893656007</v>
+        <v>0.1016693072822822</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.04357288896821545</v>
+        <v>0.07482446059870444</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.01364071678928038</v>
+        <v>0.06531276921968882</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.005022356227122955</v>
+        <v>-0.006705822848939855</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.4488597029861967</v>
+        <v>0.2734724441261137</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08169534286691774</v>
+        <v>0.07050606239011738</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04832710491911926</v>
+        <v>0.05423067517983291</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00587531792428816</v>
+        <v>0.05028581435288917</v>
       </c>
       <c r="I17" t="n">
-        <v>0.000159097011233461</v>
+        <v>0.003467280110769582</v>
       </c>
       <c r="J17" t="n">
-        <v>0.03072317000689299</v>
+        <v>0.0841912765268799</v>
       </c>
       <c r="K17" t="n">
-        <v>0.004356526367798118</v>
+        <v>0.0007069226146480066</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01311644596146257</v>
+        <v>0.02316474250137566</v>
       </c>
       <c r="M17" t="n">
-        <v>0.06237808029170101</v>
+        <v>0.08350869321861998</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01256844909489383</v>
+        <v>0.04971907338480758</v>
       </c>
       <c r="O17" t="n">
-        <v>0.08802119217341102</v>
+        <v>0.06571849509513333</v>
       </c>
       <c r="P17" t="n">
-        <v>0.03614219640405353</v>
+        <v>0.02857878336073132</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.04861646130657951</v>
+        <v>0.04334368884532745</v>
       </c>
       <c r="R17" t="n">
-        <v>0.001310906682109113</v>
+        <v>0.05996287712732467</v>
       </c>
       <c r="S17" t="n">
-        <v>0.03897839676151818</v>
+        <v>0.006670034446146032</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0625740199592003</v>
+        <v>0.0435289543460299</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08962029393176379</v>
+        <v>0.03459515946730463</v>
       </c>
       <c r="V17" t="n">
-        <v>0.04219477683308618</v>
+        <v>0.07734462575638842</v>
       </c>
       <c r="W17" t="n">
-        <v>0.02928159649042236</v>
+        <v>0.004940298530356289</v>
       </c>
       <c r="X17" t="n">
-        <v>0.08535690355069876</v>
+        <v>0.09061271996272301</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.06116753550205414</v>
+        <v>0.007398399517205104</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.04947977667181603</v>
+        <v>0.08473209908920377</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.04342802905596792</v>
+        <v>0.02233313312899026</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.06462838023301219</v>
+        <v>0.01046019104719547</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.0001728912089638381</v>
+        <v>-0.0001456530265392189</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.141658163031341</v>
+        <v>0.146939047394959</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01768529145774554</v>
+        <v>0.06453581638198819</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07401414861699991</v>
+        <v>0.04509366909439235</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04124817438773289</v>
+        <v>0.01370272828592438</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03973921641136734</v>
+        <v>0.04121524783095401</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01908362874546974</v>
+        <v>0.06058369532967174</v>
       </c>
       <c r="K18" t="n">
-        <v>0.05872896206422457</v>
+        <v>0.03121879924565785</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05587544198074204</v>
+        <v>0.05544417816254734</v>
       </c>
       <c r="M18" t="n">
-        <v>0.05615097303022581</v>
+        <v>0.03597479786271982</v>
       </c>
       <c r="N18" t="n">
-        <v>0.07237146158330202</v>
+        <v>0.02950070008465531</v>
       </c>
       <c r="O18" t="n">
-        <v>0.07252582658784482</v>
+        <v>0.05123054299202422</v>
       </c>
       <c r="P18" t="n">
-        <v>0.02729887647583068</v>
+        <v>0.03371421330842211</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0387817700086131</v>
+        <v>0.04911478031344623</v>
       </c>
       <c r="R18" t="n">
-        <v>0.002340024265168624</v>
+        <v>0.007375261097621341</v>
       </c>
       <c r="S18" t="n">
-        <v>0.06108709420937438</v>
+        <v>0.05583107032010593</v>
       </c>
       <c r="T18" t="n">
-        <v>0.04104152011603008</v>
+        <v>0.05941874764188308</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05620516644630197</v>
+        <v>0.03099717134824008</v>
       </c>
       <c r="V18" t="n">
-        <v>0.007985525401706429</v>
+        <v>0.007264878843617733</v>
       </c>
       <c r="W18" t="n">
-        <v>0.0008353152484380786</v>
+        <v>0.002707595688775959</v>
       </c>
       <c r="X18" t="n">
-        <v>0.08413739850462415</v>
+        <v>0.08001679267618124</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.03764577749557175</v>
+        <v>0.08533175653673269</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.07818925559741531</v>
+        <v>0.06154470778031142</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.04419472305142125</v>
+        <v>0.06142570853666619</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.01283442831384933</v>
+        <v>0.03675714063746083</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.08548085485803285</v>
+        <v>0.04465794095562786</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1.007460669942907</v>
+        <v>1.156334287546575</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02817848515935296</v>
+        <v>0.003960740764992667</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03874093799925234</v>
+        <v>0.02164726171518748</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02622377545064895</v>
+        <v>0.03156776960122374</v>
       </c>
       <c r="I19" t="n">
-        <v>0.05615801860558279</v>
+        <v>0.004473086640485327</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01583413358792892</v>
+        <v>0.0691763601103013</v>
       </c>
       <c r="K19" t="n">
-        <v>0.06877260201694785</v>
+        <v>0.00688601408814751</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001398761046540855</v>
+        <v>0.08745756845151591</v>
       </c>
       <c r="M19" t="n">
-        <v>0.03968399112667924</v>
+        <v>0.03035145351219013</v>
       </c>
       <c r="N19" t="n">
-        <v>0.008426752710287698</v>
+        <v>0.0659225296585093</v>
       </c>
       <c r="O19" t="n">
-        <v>0.07195454026967313</v>
+        <v>0.0246803062194874</v>
       </c>
       <c r="P19" t="n">
-        <v>0.003496256157424358</v>
+        <v>0.02813676206664825</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01522765194695561</v>
+        <v>0.0662109333217728</v>
       </c>
       <c r="R19" t="n">
-        <v>0.08821571218640274</v>
+        <v>0.08376794103523463</v>
       </c>
       <c r="S19" t="n">
-        <v>0.05895132558340439</v>
+        <v>0.09958711126174837</v>
       </c>
       <c r="T19" t="n">
-        <v>0.09080930309609997</v>
+        <v>0.05479403750132061</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08629356498985645</v>
+        <v>0.01672837318522794</v>
       </c>
       <c r="V19" t="n">
-        <v>0.0476512531560359</v>
+        <v>0.01620050115720769</v>
       </c>
       <c r="W19" t="n">
-        <v>0.006985344174000625</v>
+        <v>0.1021110605858129</v>
       </c>
       <c r="X19" t="n">
-        <v>0.0847738399512771</v>
+        <v>0.05445980657657678</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.03358245308211598</v>
+        <v>0.05372547916734682</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.000653178267898099</v>
+        <v>0.01156968982000587</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.03846302308747451</v>
+        <v>0.03018440801401921</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.08952509634815937</v>
+        <v>0.03640080554503726</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.104218744917061</v>
+        <v>0.06007550535521902</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1834270167920888</v>
+        <v>0.17651783063683</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06956213975177394</v>
+        <v>0.08953022792095562</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0379421150190333</v>
+        <v>0.0756943753619744</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07073268788296683</v>
+        <v>0.04553899557938923</v>
       </c>
       <c r="I20" t="n">
-        <v>0.06886239113997634</v>
+        <v>0.09294594333192949</v>
       </c>
       <c r="J20" t="n">
-        <v>0.05717972506850819</v>
+        <v>0.04044626109930355</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0341092365874509</v>
+        <v>0.06006116986869292</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01926472938117342</v>
+        <v>0.01389245275706553</v>
       </c>
       <c r="M20" t="n">
-        <v>0.05446375892856624</v>
+        <v>0.09467136372465561</v>
       </c>
       <c r="N20" t="n">
-        <v>0.07271033833904619</v>
+        <v>0.01969300005127394</v>
       </c>
       <c r="O20" t="n">
-        <v>0.07085773958571552</v>
+        <v>0.0474056526871873</v>
       </c>
       <c r="P20" t="n">
-        <v>0.06437744143732468</v>
+        <v>0.03786036434180311</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.03202236642911659</v>
+        <v>0.04489197745725516</v>
       </c>
       <c r="R20" t="n">
-        <v>0.05141575773700513</v>
+        <v>0.04831974056602794</v>
       </c>
       <c r="S20" t="n">
-        <v>0.07153783740026443</v>
+        <v>0.01616355657966763</v>
       </c>
       <c r="T20" t="n">
-        <v>0.01350268321065696</v>
+        <v>0.0005844793854027116</v>
       </c>
       <c r="U20" t="n">
-        <v>0.002177513531390714</v>
+        <v>0.009009358246403263</v>
       </c>
       <c r="V20" t="n">
-        <v>0.002457983471579483</v>
+        <v>0.001574845408008072</v>
       </c>
       <c r="W20" t="n">
-        <v>0.03757972022875969</v>
+        <v>0.02315571505759033</v>
       </c>
       <c r="X20" t="n">
-        <v>0.06280530856517691</v>
+        <v>0.03097327961775779</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.004526831916215697</v>
+        <v>0.02458211803597197</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.0275174757620699</v>
+        <v>0.03641098052396205</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.06929414391100937</v>
+        <v>0.05423634868239559</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.005100074715219644</v>
+        <v>0.09235779371532704</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.08767697570785186</v>
+        <v>0.07899718956387268</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.239024940276163</v>
+        <v>0.205817366051074</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06760649459410102</v>
+        <v>0.09043823584651868</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03642533969686462</v>
+        <v>0.06215930517618167</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03984176236454563</v>
+        <v>0.01567224436576904</v>
       </c>
       <c r="I21" t="n">
-        <v>0.07593561836936602</v>
+        <v>0.06240081045791888</v>
       </c>
       <c r="J21" t="n">
-        <v>0.07499658412173706</v>
+        <v>0.04364448769446715</v>
       </c>
       <c r="K21" t="n">
-        <v>0.07805868306551828</v>
+        <v>0.05404560954677538</v>
       </c>
       <c r="L21" t="n">
-        <v>0.05876683708765051</v>
+        <v>0.04086328832488006</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02578976475528791</v>
+        <v>0.0919055509980502</v>
       </c>
       <c r="N21" t="n">
-        <v>0.01257319295793544</v>
+        <v>0.02763831923685351</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02614873390573855</v>
+        <v>0.02961411107966302</v>
       </c>
       <c r="P21" t="n">
-        <v>0.02380976962140501</v>
+        <v>0.02721670739819898</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.03822417845051421</v>
+        <v>0.01008976254339937</v>
       </c>
       <c r="R21" t="n">
-        <v>0.04248129252898785</v>
+        <v>0.09288367641378345</v>
       </c>
       <c r="S21" t="n">
-        <v>0.03535608227016636</v>
+        <v>0.06187074004707614</v>
       </c>
       <c r="T21" t="n">
-        <v>0.07185612598542758</v>
+        <v>0.001021066641651869</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03678609971675405</v>
+        <v>0.02929433932682488</v>
       </c>
       <c r="V21" t="n">
-        <v>3.173050793437317e-06</v>
+        <v>0.01293680137226392</v>
       </c>
       <c r="W21" t="n">
-        <v>0.01305568800325801</v>
+        <v>0.08745168662209196</v>
       </c>
       <c r="X21" t="n">
-        <v>0.07892478883819948</v>
+        <v>0.03611070181143685</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.02440990809842211</v>
+        <v>0.0002652420281379977</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.05692521230035837</v>
+        <v>0.06645644176255289</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.07564665295703268</v>
+        <v>0.04759083979300366</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.006378017259935974</v>
+        <v>0.008430031512500552</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.08351784939982017</v>
+        <v>0.09526700080846671</v>
       </c>
     </row>
     <row r="22">
@@ -2495,79 +2495,79 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1845651186938648</v>
+        <v>0.1966528294402656</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05695829434030215</v>
+        <v>0.04515884599116089</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0725596911222692</v>
+        <v>0.03165903733214823</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08465372840779133</v>
+        <v>0.03706122109130448</v>
       </c>
       <c r="I22" t="n">
-        <v>0.04076188074634096</v>
+        <v>0.05017824161351121</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001515767638398473</v>
+        <v>0.06183810327684535</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02973380492449189</v>
+        <v>0.08703326623840191</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03298997230392291</v>
+        <v>0.06535985865116117</v>
       </c>
       <c r="M22" t="n">
-        <v>0.07188202673166731</v>
+        <v>0.0850065014806148</v>
       </c>
       <c r="N22" t="n">
-        <v>0.006871561479618133</v>
+        <v>0.02455409705288885</v>
       </c>
       <c r="O22" t="n">
-        <v>0.003565546846443363</v>
+        <v>0.002212565963910367</v>
       </c>
       <c r="P22" t="n">
-        <v>0.01857282281616916</v>
+        <v>0.08615022774588961</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.06730871571553029</v>
+        <v>0.008598175403443301</v>
       </c>
       <c r="R22" t="n">
-        <v>0.05133909554312804</v>
+        <v>0.02880108753898699</v>
       </c>
       <c r="S22" t="n">
-        <v>0.06293525145678637</v>
+        <v>0.01271033828134038</v>
       </c>
       <c r="T22" t="n">
-        <v>0.04738970848328869</v>
+        <v>0.04509982858596713</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08316242682111188</v>
+        <v>0.04756662274905418</v>
       </c>
       <c r="V22" t="n">
-        <v>0.0004989123293702468</v>
+        <v>0.002502324655524885</v>
       </c>
       <c r="W22" t="n">
-        <v>0.02852996238429629</v>
+        <v>0.03625945504320935</v>
       </c>
       <c r="X22" t="n">
-        <v>0.06514766844523819</v>
+        <v>0.05557480012003737</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.03325520369276781</v>
+        <v>0.06216713856901301</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.01073328068002386</v>
+        <v>0.027655665025074</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.06594468786641793</v>
+        <v>0.07203529519398394</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.06368998922462527</v>
+        <v>0.02481730239652833</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.07631341488650217</v>
+        <v>0.06423643509447831</v>
       </c>
     </row>
     <row r="23">
@@ -2590,79 +2590,79 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.5185127489778627</v>
+        <v>1.190579389511574</v>
       </c>
       <c r="F23" t="n">
-        <v>0.09023615916513356</v>
+        <v>0.08518693741797495</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01071552999450551</v>
+        <v>0.004261722767212096</v>
       </c>
       <c r="H23" t="n">
-        <v>0.08009780452545159</v>
+        <v>0.07915022061927351</v>
       </c>
       <c r="I23" t="n">
-        <v>0.005973678513701641</v>
+        <v>0.01700069215478987</v>
       </c>
       <c r="J23" t="n">
-        <v>0.03957880199806869</v>
+        <v>0.01600405960608427</v>
       </c>
       <c r="K23" t="n">
-        <v>0.007688712418951992</v>
+        <v>0.01202459612192676</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01166426227679958</v>
+        <v>0.03219553412795604</v>
       </c>
       <c r="M23" t="n">
-        <v>0.06415941611119329</v>
+        <v>0.06671313272416111</v>
       </c>
       <c r="N23" t="n">
-        <v>0.09655495787139209</v>
+        <v>0.003045168850750235</v>
       </c>
       <c r="O23" t="n">
-        <v>0.09614413527542293</v>
+        <v>0.0894910788891346</v>
       </c>
       <c r="P23" t="n">
-        <v>0.02697055647665468</v>
+        <v>0.03630134388487942</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.04242942529826983</v>
+        <v>0.09008854107058011</v>
       </c>
       <c r="R23" t="n">
-        <v>0.01417446642407749</v>
+        <v>0.07388667952935475</v>
       </c>
       <c r="S23" t="n">
-        <v>0.06008382905600883</v>
+        <v>0.03840724911187458</v>
       </c>
       <c r="T23" t="n">
-        <v>0.08295634436900211</v>
+        <v>0.06331697327593599</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09317789164838571</v>
+        <v>0.07471602013407538</v>
       </c>
       <c r="V23" t="n">
-        <v>0.01656176380465551</v>
+        <v>0.004919067247698201</v>
       </c>
       <c r="W23" t="n">
-        <v>0.021350485712025</v>
+        <v>0.07591297618296339</v>
       </c>
       <c r="X23" t="n">
-        <v>0.02181812179686285</v>
+        <v>0.02130991464593579</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.001178927924947977</v>
+        <v>0.02888624601391051</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.02386724383838624</v>
+        <v>0.01337889375749868</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.0888245701512341</v>
+        <v>0.03300767673225814</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.003792915348868544</v>
+        <v>0.04079527513377185</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.05666116387261208</v>
+        <v>0.08041847627501268</v>
       </c>
     </row>
     <row r="24">
@@ -2685,79 +2685,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1377111347006321</v>
+        <v>0.1350176586585325</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07887875731945007</v>
+        <v>0.1103156119604348</v>
       </c>
       <c r="G24" t="n">
-        <v>0.005512087972297723</v>
+        <v>0.02318487097832762</v>
       </c>
       <c r="H24" t="n">
-        <v>0.06635308041517829</v>
+        <v>0.03671847104961953</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02731905773368577</v>
+        <v>0.0080960579110842</v>
       </c>
       <c r="J24" t="n">
-        <v>0.02089871221319587</v>
+        <v>0.003140060685102575</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02365852752306355</v>
+        <v>0.04774090421706227</v>
       </c>
       <c r="L24" t="n">
-        <v>0.03637871239552921</v>
+        <v>0.06650134735923101</v>
       </c>
       <c r="M24" t="n">
-        <v>0.04458464695945589</v>
+        <v>0.01749156691730418</v>
       </c>
       <c r="N24" t="n">
-        <v>0.03041065657142831</v>
+        <v>0.01779561102392051</v>
       </c>
       <c r="O24" t="n">
-        <v>0.04660008631415391</v>
+        <v>0.009148808875487836</v>
       </c>
       <c r="P24" t="n">
-        <v>0.05882414423273547</v>
+        <v>0.06028515409124083</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.03850411382135875</v>
+        <v>0.05147099361708898</v>
       </c>
       <c r="R24" t="n">
-        <v>0.05655270193195663</v>
+        <v>0.02812083825767295</v>
       </c>
       <c r="S24" t="n">
-        <v>0.08276086927230439</v>
+        <v>0.07280301173689421</v>
       </c>
       <c r="T24" t="n">
-        <v>0.0554383849651587</v>
+        <v>0.0553938233344846</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05976285901619759</v>
+        <v>0.03565694356619271</v>
       </c>
       <c r="V24" t="n">
-        <v>0.01526919717015761</v>
+        <v>0.01332270880585724</v>
       </c>
       <c r="W24" t="n">
-        <v>0.07286875522776327</v>
+        <v>0.1096581293027185</v>
       </c>
       <c r="X24" t="n">
-        <v>0.009364199829463434</v>
+        <v>0.008318973474889498</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.007389915523371145</v>
+        <v>0.005278050568813602</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.08288791374212058</v>
+        <v>0.09984327788428103</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.07813865888866793</v>
+        <v>0.09835798561525184</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.001643960961305837</v>
+        <v>0.02135679876703936</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.2338513118146741</v>
+        <v>-0.1971171139517948</v>
       </c>
     </row>
     <row r="25">
@@ -2780,79 +2780,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.213382911648271</v>
+        <v>0.2579416699809882</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02462798856036429</v>
+        <v>0.1108972978893</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08737881798813911</v>
+        <v>0.1105717786783445</v>
       </c>
       <c r="H25" t="n">
-        <v>0.006598163582521597</v>
+        <v>0.0211330369751319</v>
       </c>
       <c r="I25" t="n">
-        <v>0.07317327376114885</v>
+        <v>0.002196565978911125</v>
       </c>
       <c r="J25" t="n">
-        <v>0.03045164584340152</v>
+        <v>0.05988473013251574</v>
       </c>
       <c r="K25" t="n">
-        <v>0.03382688848869903</v>
+        <v>0.005346373614177747</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02568233894139995</v>
+        <v>0.02916088908320453</v>
       </c>
       <c r="M25" t="n">
-        <v>0.09041481954614804</v>
+        <v>0.04812826386594048</v>
       </c>
       <c r="N25" t="n">
-        <v>0.01203377992377196</v>
+        <v>0.01221621848442696</v>
       </c>
       <c r="O25" t="n">
-        <v>0.05809718855968808</v>
+        <v>0.07118603613764909</v>
       </c>
       <c r="P25" t="n">
-        <v>0.01783139260994146</v>
+        <v>0.0156596965152149</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.05990438903448179</v>
+        <v>0.04312053254318862</v>
       </c>
       <c r="R25" t="n">
-        <v>0.03249459051109246</v>
+        <v>0.0110128072025088</v>
       </c>
       <c r="S25" t="n">
-        <v>0.009753969336565254</v>
+        <v>0.001484878075306861</v>
       </c>
       <c r="T25" t="n">
-        <v>0.02048812307529015</v>
+        <v>0.03943083406987154</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02463186660556978</v>
+        <v>0.0217272309298098</v>
       </c>
       <c r="V25" t="n">
-        <v>0.09860609239339199</v>
+        <v>0.07580767326699039</v>
       </c>
       <c r="W25" t="n">
-        <v>0.03908216270792812</v>
+        <v>0.01767717779260312</v>
       </c>
       <c r="X25" t="n">
-        <v>0.04765000994066493</v>
+        <v>0.05257357689823686</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.07967059250495935</v>
+        <v>0.1130600496265484</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.07642595614628193</v>
+        <v>0.02952049502878236</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.008655929371610077</v>
+        <v>0.05914626398643975</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.04252002056694019</v>
+        <v>0.04905759322489638</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.1826443741354775</v>
+        <v>-0.1398674342544872</v>
       </c>
     </row>
     <row r="26">
@@ -2875,79 +2875,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1202576346714386</v>
+        <v>0.1185365868806024</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0798039776686276</v>
+        <v>0.07382392920881893</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03111465241611688</v>
+        <v>0.08892080188405316</v>
       </c>
       <c r="H26" t="n">
-        <v>0.003487912806038605</v>
+        <v>0.0196720221180682</v>
       </c>
       <c r="I26" t="n">
-        <v>0.002419029505945962</v>
+        <v>0.02591963951297991</v>
       </c>
       <c r="J26" t="n">
-        <v>0.03952019614022444</v>
+        <v>0.000976160235737168</v>
       </c>
       <c r="K26" t="n">
-        <v>0.002789871183852479</v>
+        <v>0.007968332343515978</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0200207426103658</v>
+        <v>0.05326100109362465</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01714340009737627</v>
+        <v>0.03594091053625283</v>
       </c>
       <c r="N26" t="n">
-        <v>0.05982647923760389</v>
+        <v>0.001471297107650805</v>
       </c>
       <c r="O26" t="n">
-        <v>0.1170211480109764</v>
+        <v>0.06299106082458047</v>
       </c>
       <c r="P26" t="n">
-        <v>0.02182080697617319</v>
+        <v>0.06692131831848483</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.1133185006697172</v>
+        <v>0.07522502649886427</v>
       </c>
       <c r="R26" t="n">
-        <v>0.05981262958521965</v>
+        <v>0.03678982309982999</v>
       </c>
       <c r="S26" t="n">
-        <v>0.0005759936649194108</v>
+        <v>0.0364365357546274</v>
       </c>
       <c r="T26" t="n">
-        <v>0.002305846757213021</v>
+        <v>0.007291132439135036</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1150629692264476</v>
+        <v>0.000237911019866211</v>
       </c>
       <c r="V26" t="n">
-        <v>0.003975199207583796</v>
+        <v>0.0339799997828523</v>
       </c>
       <c r="W26" t="n">
-        <v>0.1028272292476437</v>
+        <v>0.02925276523720634</v>
       </c>
       <c r="X26" t="n">
-        <v>0.05086037115423207</v>
+        <v>0.08579830771601345</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.04008326247149</v>
+        <v>0.06048110402704077</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.07868030387494583</v>
+        <v>0.1039884480457844</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.0197117812657845</v>
+        <v>0.04800677156220665</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.01781769622150157</v>
+        <v>0.04464570163280614</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.1837546816765711</v>
+        <v>0.2250979697836644</v>
       </c>
     </row>
     <row r="27">
@@ -2970,79 +2970,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.1505508468062675</v>
+        <v>0.1559113389842468</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1077020435585615</v>
+        <v>0.0885713057215841</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06961472607634411</v>
+        <v>0.02460143412672283</v>
       </c>
       <c r="H27" t="n">
-        <v>0.007874927107120417</v>
+        <v>0.02712349099961437</v>
       </c>
       <c r="I27" t="n">
-        <v>0.00676180650416868</v>
+        <v>0.006097060555021145</v>
       </c>
       <c r="J27" t="n">
-        <v>0.006338497457077093</v>
+        <v>0.01227419480158475</v>
       </c>
       <c r="K27" t="n">
-        <v>0.06552653942132645</v>
+        <v>0.09537821242242085</v>
       </c>
       <c r="L27" t="n">
-        <v>0.03036781829612107</v>
+        <v>0.00111222404541012</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1091513382615728</v>
+        <v>0.07854841358435423</v>
       </c>
       <c r="N27" t="n">
-        <v>0.01669637038516134</v>
+        <v>0.0867814407566966</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0598589325247493</v>
+        <v>0.03024735247544543</v>
       </c>
       <c r="P27" t="n">
-        <v>0.08886829317618894</v>
+        <v>0.03684067030284274</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.01208859318124495</v>
+        <v>0.004724319187697341</v>
       </c>
       <c r="R27" t="n">
-        <v>0.03283762432022616</v>
+        <v>0.09151243465042141</v>
       </c>
       <c r="S27" t="n">
-        <v>0.02075146730257417</v>
+        <v>0.0086433130285265</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02721383310752008</v>
+        <v>0.008000458314918753</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05967149890604948</v>
+        <v>0.0750090942638605</v>
       </c>
       <c r="V27" t="n">
-        <v>0.02910896906515098</v>
+        <v>0.01954253818201829</v>
       </c>
       <c r="W27" t="n">
-        <v>0.02373114769470976</v>
+        <v>0.08946893023173548</v>
       </c>
       <c r="X27" t="n">
-        <v>0.02154578335232905</v>
+        <v>0.05295002659510945</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.06313254817461812</v>
+        <v>0.0719590693962727</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.0558972178701622</v>
+        <v>0.051840298171989</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.001275769068439551</v>
+        <v>0.02890834890692236</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.08398425518858343</v>
+        <v>0.00986536927883107</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.2045339896368011</v>
+        <v>0.1719898235344214</v>
       </c>
     </row>
     <row r="28">
@@ -3065,79 +3065,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1379348147805059</v>
+        <v>0.1356160572437728</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01432883156118971</v>
+        <v>0.008500598821418173</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04395347728934838</v>
+        <v>0.05191090487533179</v>
       </c>
       <c r="H28" t="n">
-        <v>0.05147591281986102</v>
+        <v>0.06162443198399908</v>
       </c>
       <c r="I28" t="n">
-        <v>0.07313587346050968</v>
+        <v>0.02036795203151563</v>
       </c>
       <c r="J28" t="n">
-        <v>0.07512226658887068</v>
+        <v>0.0388147393233874</v>
       </c>
       <c r="K28" t="n">
-        <v>0.02196092713473839</v>
+        <v>0.02213737861695328</v>
       </c>
       <c r="L28" t="n">
-        <v>0.07859330440046798</v>
+        <v>0.05797675907836116</v>
       </c>
       <c r="M28" t="n">
-        <v>0.004781109111898101</v>
+        <v>0.07142107067911156</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0437403056497104</v>
+        <v>0.06086458056950236</v>
       </c>
       <c r="O28" t="n">
-        <v>0.06159742959036069</v>
+        <v>0.04169885777348738</v>
       </c>
       <c r="P28" t="n">
-        <v>0.08998787100958566</v>
+        <v>0.07182847658235272</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.1098555363476216</v>
+        <v>0.07645728315731984</v>
       </c>
       <c r="R28" t="n">
-        <v>0.04294265710269433</v>
+        <v>0.05526708643905202</v>
       </c>
       <c r="S28" t="n">
-        <v>0.05060350346880662</v>
+        <v>0.02155446359328083</v>
       </c>
       <c r="T28" t="n">
-        <v>0.06549775911947112</v>
+        <v>0.06502600830442573</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06516944558516387</v>
+        <v>0.06175686820880005</v>
       </c>
       <c r="V28" t="n">
-        <v>0.01619541933502403</v>
+        <v>0.05023431370060966</v>
       </c>
       <c r="W28" t="n">
-        <v>0.001056885994249942</v>
+        <v>0.007445321480867453</v>
       </c>
       <c r="X28" t="n">
-        <v>9.440878773343449e-05</v>
+        <v>0.003311572049416771</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.01243296161705578</v>
+        <v>0.07661120668575476</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.001243509207047814</v>
+        <v>0.001987986606896702</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.05307517754950471</v>
+        <v>0.01462292705221818</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.0231554272690861</v>
+        <v>0.05857921238593759</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.02339979522631088</v>
+        <v>0.0305621861390063</v>
       </c>
     </row>
     <row r="29">
@@ -3160,82 +3160,82 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.1465937408441556</v>
+        <v>0.1611740185264242</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09698456566430556</v>
+        <v>0.07462264022006646</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02744139137249283</v>
+        <v>0.02582116638082934</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01275421461668941</v>
+        <v>0.06473285763789124</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02971030046445636</v>
+        <v>0.03574851389461441</v>
       </c>
       <c r="J29" t="n">
-        <v>0.00589540865864677</v>
+        <v>0.03977819535095985</v>
       </c>
       <c r="K29" t="n">
-        <v>0.001953949287737273</v>
+        <v>0.02449547724685578</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0201792102279951</v>
+        <v>0.06535734267781063</v>
       </c>
       <c r="M29" t="n">
-        <v>0.08710420201834826</v>
+        <v>0.04615072556259172</v>
       </c>
       <c r="N29" t="n">
-        <v>0.03805936405567382</v>
+        <v>0.01149570152675975</v>
       </c>
       <c r="O29" t="n">
-        <v>0.05098167914236942</v>
+        <v>0.06558592527717802</v>
       </c>
       <c r="P29" t="n">
-        <v>0.07689134583806852</v>
+        <v>0.02720312006535961</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.08750816646540126</v>
+        <v>0.05765348796723666</v>
       </c>
       <c r="R29" t="n">
-        <v>0.09188937584560265</v>
+        <v>0.0615587904193854</v>
       </c>
       <c r="S29" t="n">
-        <v>0.03810274441710138</v>
+        <v>0.01591385835454725</v>
       </c>
       <c r="T29" t="n">
-        <v>0.07334678079376533</v>
+        <v>0.08618680126851656</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0375841501876962</v>
+        <v>0.1020559542932027</v>
       </c>
       <c r="V29" t="n">
-        <v>0.07885411559818438</v>
+        <v>0.006347995766858036</v>
       </c>
       <c r="W29" t="n">
-        <v>0.05286922008139742</v>
+        <v>0.006147561583665877</v>
       </c>
       <c r="X29" t="n">
-        <v>0.006579088561303911</v>
+        <v>0.007681087816295655</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.0053508246643968</v>
+        <v>0.0873228319793336</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.002141057392835499</v>
+        <v>0.002842284117522582</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.06123557640138096</v>
+        <v>0.05943298757281885</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.01658326824415124</v>
+        <v>0.02586469301970018</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.03358686589417845</v>
+        <v>0.01311046931265</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>